--- a/bip5887_data.xlsx
+++ b/bip5887_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Esteban\TESIS\Tesis\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73888438-DC8D-403E-8BEF-1BEBAE0D654F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359FA64-7127-4D29-9151-302446B08329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91D287CC-EE7F-49F7-8D19-7A4C550A5EAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{91D287CC-EE7F-49F7-8D19-7A4C550A5EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
     <sheet name="0.5" sheetId="4" r:id="rId4"/>
     <sheet name="Opt." sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -293,12 +287,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10032,3185 +10026,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP005887</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip5887</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>17-Dec</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>18-Jan</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>18-Feb</v>
-          </cell>
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>18-Mar</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0.2</v>
-          </cell>
-          <cell r="D5">
-            <v>5.3073741064902578</v>
-          </cell>
-          <cell r="E5">
-            <v>5.3790333434146422</v>
-          </cell>
-          <cell r="F5">
-            <v>5.3826309192012474</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>18-Apr</v>
-          </cell>
-          <cell r="B6">
-            <v>10</v>
-          </cell>
-          <cell r="C6">
-            <v>0.18</v>
-          </cell>
-          <cell r="D6">
-            <v>5.3073741064902578</v>
-          </cell>
-          <cell r="E6">
-            <v>5.3790333434146422</v>
-          </cell>
-          <cell r="F6">
-            <v>5.3826309192012474</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>18-May</v>
-          </cell>
-          <cell r="B7">
-            <v>52</v>
-          </cell>
-          <cell r="C7">
-            <v>1.1619999999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>5.2972558401750414</v>
-          </cell>
-          <cell r="E7">
-            <v>5.3607218200774787</v>
-          </cell>
-          <cell r="F7">
-            <v>5.3637747139656771</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>18-Jun</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>6.2458</v>
-          </cell>
-          <cell r="D8">
-            <v>6.1360165785574061</v>
-          </cell>
-          <cell r="E8">
-            <v>6.0616137169026834</v>
-          </cell>
-          <cell r="F8">
-            <v>6.0645218126048821</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>18-Jul</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>5.6212200000000001</v>
-          </cell>
-          <cell r="D9">
-            <v>6.1360165785574061</v>
-          </cell>
-          <cell r="E9">
-            <v>6.0616137169026834</v>
-          </cell>
-          <cell r="F9">
-            <v>6.0645218126048821</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>18-Aug</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>5.0590980000000014</v>
-          </cell>
-          <cell r="D10">
-            <v>6.1360165785574061</v>
-          </cell>
-          <cell r="E10">
-            <v>6.0616137169026834</v>
-          </cell>
-          <cell r="F10">
-            <v>6.0645218126048821</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>18-Sep</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>4.553188200000001</v>
-          </cell>
-          <cell r="D11">
-            <v>6.1360165785574061</v>
-          </cell>
-          <cell r="E11">
-            <v>6.0616137169026834</v>
-          </cell>
-          <cell r="F11">
-            <v>6.0645218126048821</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>18-Oct</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>4.0978693800000006</v>
-          </cell>
-          <cell r="D12">
-            <v>6.1360165785574061</v>
-          </cell>
-          <cell r="E12">
-            <v>6.0616137169026834</v>
-          </cell>
-          <cell r="F12">
-            <v>6.0645218126048821</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>18-Nov</v>
-          </cell>
-          <cell r="B13">
-            <v>10</v>
-          </cell>
-          <cell r="C13">
-            <v>3.688082442000002</v>
-          </cell>
-          <cell r="D13">
-            <v>6.1360165785574061</v>
-          </cell>
-          <cell r="E13">
-            <v>6.0616137169026834</v>
-          </cell>
-          <cell r="F13">
-            <v>6.0645218126048821</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>18-Dec</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>4.3192741978000013</v>
-          </cell>
-          <cell r="D14">
-            <v>5.6581184576317893</v>
-          </cell>
-          <cell r="E14">
-            <v>5.6320416104664979</v>
-          </cell>
-          <cell r="F14">
-            <v>5.6330913563831349</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>19-Jan</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>3.8873467780200008</v>
-          </cell>
-          <cell r="D15">
-            <v>5.6581184576317893</v>
-          </cell>
-          <cell r="E15">
-            <v>5.6320416104664979</v>
-          </cell>
-          <cell r="F15">
-            <v>5.6330913563831349</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>19-Feb</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>3.4986121002180011</v>
-          </cell>
-          <cell r="D16">
-            <v>5.6581184576317893</v>
-          </cell>
-          <cell r="E16">
-            <v>5.6320416104664979</v>
-          </cell>
-          <cell r="F16">
-            <v>5.6330913563831349</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>19-Mar</v>
-          </cell>
-          <cell r="B17">
-            <v>6</v>
-          </cell>
-          <cell r="C17">
-            <v>3.1487508901962009</v>
-          </cell>
-          <cell r="D17">
-            <v>5.6581184576317893</v>
-          </cell>
-          <cell r="E17">
-            <v>5.6320416104664979</v>
-          </cell>
-          <cell r="F17">
-            <v>5.6330913563831349</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>19-Apr</v>
-          </cell>
-          <cell r="B18">
-            <v>11</v>
-          </cell>
-          <cell r="C18">
-            <v>3.4338758011765811</v>
-          </cell>
-          <cell r="D18">
-            <v>5.3529428850624203</v>
-          </cell>
-          <cell r="E18">
-            <v>5.3529438841633157</v>
-          </cell>
-          <cell r="F18">
-            <v>5.3529596889218212</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>19-May</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>4.1904882210589234</v>
-          </cell>
-          <cell r="D19">
-            <v>5.4657685057395211</v>
-          </cell>
-          <cell r="E19">
-            <v>5.4451725860703277</v>
-          </cell>
-          <cell r="F19">
-            <v>5.4448906621997306</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>19-Jun</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>3.7714393989530302</v>
-          </cell>
-          <cell r="D20">
-            <v>5.4657685057395211</v>
-          </cell>
-          <cell r="E20">
-            <v>5.4451725860703277</v>
-          </cell>
-          <cell r="F20">
-            <v>5.4448906621997306</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>19-Jul</v>
-          </cell>
-          <cell r="B21">
-            <v>52</v>
-          </cell>
-          <cell r="C21">
-            <v>3.5942954590577272</v>
-          </cell>
-          <cell r="D21">
-            <v>5.2759219147797003</v>
-          </cell>
-          <cell r="E21">
-            <v>5.2714087043514626</v>
-          </cell>
-          <cell r="F21">
-            <v>5.2706234711538071</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>19-Aug</v>
-          </cell>
-          <cell r="B22">
-            <v>18</v>
-          </cell>
-          <cell r="C22">
-            <v>8.4348659131519543</v>
-          </cell>
-          <cell r="D22">
-            <v>6.3539675025467419</v>
-          </cell>
-          <cell r="E22">
-            <v>6.1991626265114244</v>
-          </cell>
-          <cell r="F22">
-            <v>6.1976650807466216</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>19-Sep</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>9.3913793218367587</v>
-          </cell>
-          <cell r="D23">
-            <v>6.6450650369781039</v>
-          </cell>
-          <cell r="E23">
-            <v>6.4479920356355391</v>
-          </cell>
-          <cell r="F23">
-            <v>6.446009737727425</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>19-Oct</v>
-          </cell>
-          <cell r="B24">
-            <v>3</v>
-          </cell>
-          <cell r="C24">
-            <v>9.0522413896530836</v>
-          </cell>
-          <cell r="D24">
-            <v>6.6276339508819868</v>
-          </cell>
-          <cell r="E24">
-            <v>6.429490034566582</v>
-          </cell>
-          <cell r="F24">
-            <v>6.4271245044517427</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>19-Nov</v>
-          </cell>
-          <cell r="B25">
-            <v>1</v>
-          </cell>
-          <cell r="C25">
-            <v>8.447017250687777</v>
-          </cell>
-          <cell r="D25">
-            <v>6.5218903097315541</v>
-          </cell>
-          <cell r="E25">
-            <v>6.3337430009431896</v>
-          </cell>
-          <cell r="F25">
-            <v>6.3310230282981843</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>19-Dec</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>7.7023155256190003</v>
-          </cell>
-          <cell r="D26">
-            <v>6.348656366815848</v>
-          </cell>
-          <cell r="E26">
-            <v>6.1783517861701513</v>
-          </cell>
-          <cell r="F26">
-            <v>6.1753093617476669</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>20-Jan</v>
-          </cell>
-          <cell r="B27">
-            <v>4</v>
-          </cell>
-          <cell r="C27">
-            <v>6.9320839730570993</v>
-          </cell>
-          <cell r="D27">
-            <v>6.348656366815848</v>
-          </cell>
-          <cell r="E27">
-            <v>6.1783517861701513</v>
-          </cell>
-          <cell r="F27">
-            <v>6.1753093617476669</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>20-Feb</v>
-          </cell>
-          <cell r="B28">
-            <v>10</v>
-          </cell>
-          <cell r="C28">
-            <v>6.6388755757513902</v>
-          </cell>
-          <cell r="D28">
-            <v>6.0652436816714967</v>
-          </cell>
-          <cell r="E28">
-            <v>5.9204779324111527</v>
-          </cell>
-          <cell r="F28">
-            <v>5.9167946093454704</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>20-Mar</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>6.9749880181762514</v>
-          </cell>
-          <cell r="D29">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E29">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F29">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>20-Apr</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>6.2774892163586262</v>
-          </cell>
-          <cell r="D30">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E30">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F30">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>20-May</v>
-          </cell>
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>5.649740294722764</v>
-          </cell>
-          <cell r="D31">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E31">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F31">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>20-Jun</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>5.0847662652504884</v>
-          </cell>
-          <cell r="D32">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E32">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F32">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>20-Jul</v>
-          </cell>
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>4.5762896387254388</v>
-          </cell>
-          <cell r="D33">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E33">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F33">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>20-Aug</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>4.1186606748528947</v>
-          </cell>
-          <cell r="D34">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E34">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F34">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>20-Sep</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>3.7067946073676059</v>
-          </cell>
-          <cell r="D35">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E35">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F35">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>20-Oct</v>
-          </cell>
-          <cell r="B36">
-            <v>11</v>
-          </cell>
-          <cell r="C36">
-            <v>3.3361151466308452</v>
-          </cell>
-          <cell r="D36">
-            <v>6.2027311256979303</v>
-          </cell>
-          <cell r="E36">
-            <v>6.0364568152147342</v>
-          </cell>
-          <cell r="F36">
-            <v>6.0322593177567692</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>20-Nov</v>
-          </cell>
-          <cell r="B37">
-            <v>3</v>
-          </cell>
-          <cell r="C37">
-            <v>4.1025036319677604</v>
-          </cell>
-          <cell r="D37">
-            <v>5.0586214315586426</v>
-          </cell>
-          <cell r="E37">
-            <v>4.9787540537709774</v>
-          </cell>
-          <cell r="F37">
-            <v>4.9731254451664082</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>3.9922529999999998</v>
-          </cell>
-          <cell r="D38">
-            <v>4.9930209999999997</v>
-          </cell>
-          <cell r="E38">
-            <v>4.9146340000000004</v>
-          </cell>
-          <cell r="F38">
-            <v>4.9088450000000003</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>3.9922529999999998</v>
-          </cell>
-          <cell r="D39">
-            <v>4.9930209999999997</v>
-          </cell>
-          <cell r="E39">
-            <v>4.9146340000000004</v>
-          </cell>
-          <cell r="F39">
-            <v>4.9088450000000003</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>3.9922529999999998</v>
-          </cell>
-          <cell r="D40">
-            <v>4.9930209999999997</v>
-          </cell>
-          <cell r="E40">
-            <v>4.9146340000000004</v>
-          </cell>
-          <cell r="F40">
-            <v>4.9088450000000003</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>3.9922529999999998</v>
-          </cell>
-          <cell r="D41">
-            <v>4.9930209999999997</v>
-          </cell>
-          <cell r="E41">
-            <v>4.9146340000000004</v>
-          </cell>
-          <cell r="F41">
-            <v>4.9088450000000003</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>3.9922529999999998</v>
-          </cell>
-          <cell r="D42">
-            <v>4.9930209999999997</v>
-          </cell>
-          <cell r="E42">
-            <v>4.9146340000000004</v>
-          </cell>
-          <cell r="F42">
-            <v>4.9088450000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>X</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>BIP005887</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip5887</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>17-Dec</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>18-Jan</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>18-Feb</v>
-          </cell>
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>18-Mar</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0.3</v>
-          </cell>
-          <cell r="D5">
-            <v>4.8942440594470114</v>
-          </cell>
-          <cell r="E5">
-            <v>5.1464625281898337</v>
-          </cell>
-          <cell r="F5">
-            <v>5.1559946109209687</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>18-Apr</v>
-          </cell>
-          <cell r="B6">
-            <v>10</v>
-          </cell>
-          <cell r="C6">
-            <v>0.255</v>
-          </cell>
-          <cell r="D6">
-            <v>4.8942440594470114</v>
-          </cell>
-          <cell r="E6">
-            <v>5.1464625281898337</v>
-          </cell>
-          <cell r="F6">
-            <v>5.1559946109209687</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>18-May</v>
-          </cell>
-          <cell r="B7">
-            <v>52</v>
-          </cell>
-          <cell r="C7">
-            <v>1.71675</v>
-          </cell>
-          <cell r="D7">
-            <v>4.8987126212520868</v>
-          </cell>
-          <cell r="E7">
-            <v>5.1244288881145099</v>
-          </cell>
-          <cell r="F7">
-            <v>5.1322734763946087</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>18-Jun</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>9.2592374999999993</v>
-          </cell>
-          <cell r="D8">
-            <v>6.0410237856510376</v>
-          </cell>
-          <cell r="E8">
-            <v>6.1666825870232147</v>
-          </cell>
-          <cell r="F8">
-            <v>6.1666677218674506</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>18-Jul</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>7.870351874999999</v>
-          </cell>
-          <cell r="D9">
-            <v>6.0410237856510376</v>
-          </cell>
-          <cell r="E9">
-            <v>6.1666825870232147</v>
-          </cell>
-          <cell r="F9">
-            <v>6.1666677218674506</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>18-Aug</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>6.6897990937499987</v>
-          </cell>
-          <cell r="D10">
-            <v>6.0410237856510376</v>
-          </cell>
-          <cell r="E10">
-            <v>6.1666825870232147</v>
-          </cell>
-          <cell r="F10">
-            <v>6.1666677218674506</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>18-Sep</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>5.686329229687499</v>
-          </cell>
-          <cell r="D11">
-            <v>6.0410237856510376</v>
-          </cell>
-          <cell r="E11">
-            <v>6.1666825870232147</v>
-          </cell>
-          <cell r="F11">
-            <v>6.1666677218674506</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>18-Oct</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>4.8333798452343739</v>
-          </cell>
-          <cell r="D12">
-            <v>6.0410237856510376</v>
-          </cell>
-          <cell r="E12">
-            <v>6.1666825870232147</v>
-          </cell>
-          <cell r="F12">
-            <v>6.1666677218674506</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>18-Nov</v>
-          </cell>
-          <cell r="B13">
-            <v>10</v>
-          </cell>
-          <cell r="C13">
-            <v>4.1083728684492176</v>
-          </cell>
-          <cell r="D13">
-            <v>6.0410237856510376</v>
-          </cell>
-          <cell r="E13">
-            <v>6.1666825870232147</v>
-          </cell>
-          <cell r="F13">
-            <v>6.1666677218674506</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>18-Dec</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>4.9921169381818347</v>
-          </cell>
-          <cell r="D14">
-            <v>5.40162761129021</v>
-          </cell>
-          <cell r="E14">
-            <v>5.4906476304323117</v>
-          </cell>
-          <cell r="F14">
-            <v>5.4891536355419381</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>19-Jan</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>4.2432993974545594</v>
-          </cell>
-          <cell r="D15">
-            <v>5.40162761129021</v>
-          </cell>
-          <cell r="E15">
-            <v>5.4906476304323117</v>
-          </cell>
-          <cell r="F15">
-            <v>5.4891536355419381</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>19-Feb</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>3.6068044878363752</v>
-          </cell>
-          <cell r="D16">
-            <v>5.40162761129021</v>
-          </cell>
-          <cell r="E16">
-            <v>5.4906476304323117</v>
-          </cell>
-          <cell r="F16">
-            <v>5.4891536355419381</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>19-Mar</v>
-          </cell>
-          <cell r="B17">
-            <v>6</v>
-          </cell>
-          <cell r="C17">
-            <v>3.0657838146609189</v>
-          </cell>
-          <cell r="D17">
-            <v>5.40162761129021</v>
-          </cell>
-          <cell r="E17">
-            <v>5.4906476304323117</v>
-          </cell>
-          <cell r="F17">
-            <v>5.4891536355419381</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>19-Apr</v>
-          </cell>
-          <cell r="B18">
-            <v>11</v>
-          </cell>
-          <cell r="C18">
-            <v>3.5059162424617809</v>
-          </cell>
-          <cell r="D18">
-            <v>5.0003399239190527</v>
-          </cell>
-          <cell r="E18">
-            <v>5.0686332285457114</v>
-          </cell>
-          <cell r="F18">
-            <v>5.0663548013247741</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>19-May</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>4.630028806092513</v>
-          </cell>
-          <cell r="D19">
-            <v>5.1765030285121343</v>
-          </cell>
-          <cell r="E19">
-            <v>5.2185673305684732</v>
-          </cell>
-          <cell r="F19">
-            <v>5.214391683581642</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>19-Jun</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>3.935524485178636</v>
-          </cell>
-          <cell r="D20">
-            <v>5.1765030285121343</v>
-          </cell>
-          <cell r="E20">
-            <v>5.2185673305684732</v>
-          </cell>
-          <cell r="F20">
-            <v>5.214391683581642</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>19-Jul</v>
-          </cell>
-          <cell r="B21">
-            <v>52</v>
-          </cell>
-          <cell r="C21">
-            <v>3.6451958124018402</v>
-          </cell>
-          <cell r="D21">
-            <v>4.9066054827365964</v>
-          </cell>
-          <cell r="E21">
-            <v>4.9411046913473093</v>
-          </cell>
-          <cell r="F21">
-            <v>4.9368059572001304</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>19-Aug</v>
-          </cell>
-          <cell r="B22">
-            <v>18</v>
-          </cell>
-          <cell r="C22">
-            <v>10.89841644054156</v>
-          </cell>
-          <cell r="D22">
-            <v>6.6312287102875329</v>
-          </cell>
-          <cell r="E22">
-            <v>6.521641636345727</v>
-          </cell>
-          <cell r="F22">
-            <v>6.5059198049515636</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>19-Sep</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>11.96365397446033</v>
-          </cell>
-          <cell r="D23">
-            <v>7.1008087029099149</v>
-          </cell>
-          <cell r="E23">
-            <v>6.9399872376291674</v>
-          </cell>
-          <cell r="F23">
-            <v>6.92039356582137</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>19-Oct</v>
-          </cell>
-          <cell r="B24">
-            <v>3</v>
-          </cell>
-          <cell r="C24">
-            <v>11.06910587829128</v>
-          </cell>
-          <cell r="D24">
-            <v>7.0497955846733174</v>
-          </cell>
-          <cell r="E24">
-            <v>6.8755731413838008</v>
-          </cell>
-          <cell r="F24">
-            <v>6.8551966409897016</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>19-Nov</v>
-          </cell>
-          <cell r="B25">
-            <v>1</v>
-          </cell>
-          <cell r="C25">
-            <v>9.8587399965475857</v>
-          </cell>
-          <cell r="D25">
-            <v>6.8404182734165868</v>
-          </cell>
-          <cell r="E25">
-            <v>6.663570553409599</v>
-          </cell>
-          <cell r="F25">
-            <v>6.6433043742062416</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>19-Dec</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>8.5299289970654488</v>
-          </cell>
-          <cell r="D26">
-            <v>6.5055468756693724</v>
-          </cell>
-          <cell r="E26">
-            <v>6.3345387269079474</v>
-          </cell>
-          <cell r="F26">
-            <v>6.3150859213908408</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>20-Jan</v>
-          </cell>
-          <cell r="B27">
-            <v>4</v>
-          </cell>
-          <cell r="C27">
-            <v>7.2504396475056314</v>
-          </cell>
-          <cell r="D27">
-            <v>6.5055468756693724</v>
-          </cell>
-          <cell r="E27">
-            <v>6.3345387269079474</v>
-          </cell>
-          <cell r="F27">
-            <v>6.3150859213908408</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>20-Feb</v>
-          </cell>
-          <cell r="B28">
-            <v>10</v>
-          </cell>
-          <cell r="C28">
-            <v>6.7628737003797861</v>
-          </cell>
-          <cell r="D28">
-            <v>5.9699585021403081</v>
-          </cell>
-          <cell r="E28">
-            <v>5.8014475718881533</v>
-          </cell>
-          <cell r="F28">
-            <v>5.7828614910931053</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>20-Mar</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>7.2484426453228181</v>
-          </cell>
-          <cell r="D29">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E29">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F29">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>20-Apr</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>6.161176248524395</v>
-          </cell>
-          <cell r="D30">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E30">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F30">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>20-May</v>
-          </cell>
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>5.2369998112457354</v>
-          </cell>
-          <cell r="D31">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E31">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F31">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>20-Jun</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>4.4514498395588751</v>
-          </cell>
-          <cell r="D32">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E32">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F32">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>20-Jul</v>
-          </cell>
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>3.7837323636250439</v>
-          </cell>
-          <cell r="D33">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E33">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F33">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>20-Aug</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>3.2161725090812872</v>
-          </cell>
-          <cell r="D34">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E34">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F34">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>20-Sep</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>2.733746632719094</v>
-          </cell>
-          <cell r="D35">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E35">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F35">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>20-Oct</v>
-          </cell>
-          <cell r="B36">
-            <v>11</v>
-          </cell>
-          <cell r="C36">
-            <v>2.3236846378112301</v>
-          </cell>
-          <cell r="D36">
-            <v>6.2333433238355704</v>
-          </cell>
-          <cell r="E36">
-            <v>6.0268289986069963</v>
-          </cell>
-          <cell r="F36">
-            <v>6.0054832801958424</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>20-Nov</v>
-          </cell>
-          <cell r="B37">
-            <v>3</v>
-          </cell>
-          <cell r="C37">
-            <v>3.6251319421395451</v>
-          </cell>
-          <cell r="D37">
-            <v>4.3830585571354543</v>
-          </cell>
-          <cell r="E37">
-            <v>4.2159195630217274</v>
-          </cell>
-          <cell r="F37">
-            <v>4.1995189728968692</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>3.5313620000000001</v>
-          </cell>
-          <cell r="D38">
-            <v>4.3097060000000003</v>
-          </cell>
-          <cell r="E38">
-            <v>4.1394979999999997</v>
-          </cell>
-          <cell r="F38">
-            <v>4.1230000000000002</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>3.5313620000000001</v>
-          </cell>
-          <cell r="D39">
-            <v>4.3097060000000003</v>
-          </cell>
-          <cell r="E39">
-            <v>4.1394979999999997</v>
-          </cell>
-          <cell r="F39">
-            <v>4.1230000000000002</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>3.5313620000000001</v>
-          </cell>
-          <cell r="D40">
-            <v>4.3097060000000003</v>
-          </cell>
-          <cell r="E40">
-            <v>4.1394979999999997</v>
-          </cell>
-          <cell r="F40">
-            <v>4.1230000000000002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>3.5313620000000001</v>
-          </cell>
-          <cell r="D41">
-            <v>4.3097060000000003</v>
-          </cell>
-          <cell r="E41">
-            <v>4.1394979999999997</v>
-          </cell>
-          <cell r="F41">
-            <v>4.1230000000000002</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>3.5313620000000001</v>
-          </cell>
-          <cell r="D42">
-            <v>4.3097060000000003</v>
-          </cell>
-          <cell r="E42">
-            <v>4.1394979999999997</v>
-          </cell>
-          <cell r="F42">
-            <v>4.1230000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP005887</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip5887</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>17-Dec</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>18-Jan</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>18-Feb</v>
-          </cell>
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>18-Mar</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-          <cell r="D5">
-            <v>3.4673832482421782E-5</v>
-          </cell>
-          <cell r="E5">
-            <v>1.5681488620568459E-4</v>
-          </cell>
-          <cell r="F5">
-            <v>1.3939100996060861E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>18-Apr</v>
-          </cell>
-          <cell r="B6">
-            <v>10</v>
-          </cell>
-          <cell r="C6">
-            <v>0.5</v>
-          </cell>
-          <cell r="D6">
-            <v>3.4673832482421782E-5</v>
-          </cell>
-          <cell r="E6">
-            <v>1.5681488620568459E-4</v>
-          </cell>
-          <cell r="F6">
-            <v>1.3939100996060861E-4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>18-May</v>
-          </cell>
-          <cell r="B7">
-            <v>52</v>
-          </cell>
-          <cell r="C7">
-            <v>5.25</v>
-          </cell>
-          <cell r="D7">
-            <v>1.000027871198983</v>
-          </cell>
-          <cell r="E7">
-            <v>0.75012559874049023</v>
-          </cell>
-          <cell r="F7">
-            <v>0.66677830999154697</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>18-Jun</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>28.625</v>
-          </cell>
-          <cell r="D8">
-            <v>9.5000241619471719</v>
-          </cell>
-          <cell r="E8">
-            <v>7.1251057057137617</v>
-          </cell>
-          <cell r="F8">
-            <v>6.3334272939677883</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>18-Jul</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>14.3125</v>
-          </cell>
-          <cell r="D9">
-            <v>9.5000241619471719</v>
-          </cell>
-          <cell r="E9">
-            <v>7.1251057057137617</v>
-          </cell>
-          <cell r="F9">
-            <v>6.3334272939677883</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>18-Aug</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>7.15625</v>
-          </cell>
-          <cell r="D10">
-            <v>9.5000241619471719</v>
-          </cell>
-          <cell r="E10">
-            <v>7.1251057057137617</v>
-          </cell>
-          <cell r="F10">
-            <v>6.3334272939677883</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>18-Sep</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>3.578125</v>
-          </cell>
-          <cell r="D11">
-            <v>9.5000241619471719</v>
-          </cell>
-          <cell r="E11">
-            <v>7.1251057057137617</v>
-          </cell>
-          <cell r="F11">
-            <v>6.3334272939677883</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>18-Oct</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>1.7890625</v>
-          </cell>
-          <cell r="D12">
-            <v>9.5000241619471719</v>
-          </cell>
-          <cell r="E12">
-            <v>7.1251057057137617</v>
-          </cell>
-          <cell r="F12">
-            <v>6.3334272939677883</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>18-Nov</v>
-          </cell>
-          <cell r="B13">
-            <v>10</v>
-          </cell>
-          <cell r="C13">
-            <v>0.89453125</v>
-          </cell>
-          <cell r="D13">
-            <v>9.5000241619471719</v>
-          </cell>
-          <cell r="E13">
-            <v>7.1251057057137617</v>
-          </cell>
-          <cell r="F13">
-            <v>6.3334272939677883</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>18-Dec</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>5.447265625</v>
-          </cell>
-          <cell r="D14">
-            <v>4.2777856400838568</v>
-          </cell>
-          <cell r="E14">
-            <v>3.2083683555621949</v>
-          </cell>
-          <cell r="F14">
-            <v>2.8518829827219512</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>19-Jan</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>2.7236328125</v>
-          </cell>
-          <cell r="D15">
-            <v>4.2777856400838568</v>
-          </cell>
-          <cell r="E15">
-            <v>3.2083683555621949</v>
-          </cell>
-          <cell r="F15">
-            <v>2.8518829827219512</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>19-Feb</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>1.36181640625</v>
-          </cell>
-          <cell r="D16">
-            <v>4.2777856400838568</v>
-          </cell>
-          <cell r="E16">
-            <v>3.2083683555621949</v>
-          </cell>
-          <cell r="F16">
-            <v>2.8518829827219512</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>19-Mar</v>
-          </cell>
-          <cell r="B17">
-            <v>6</v>
-          </cell>
-          <cell r="C17">
-            <v>0.680908203125</v>
-          </cell>
-          <cell r="D17">
-            <v>4.2777856400838568</v>
-          </cell>
-          <cell r="E17">
-            <v>3.2083683555621949</v>
-          </cell>
-          <cell r="F17">
-            <v>2.8518829827219512</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>19-Apr</v>
-          </cell>
-          <cell r="B18">
-            <v>11</v>
-          </cell>
-          <cell r="C18">
-            <v>3.3404541015625</v>
-          </cell>
-          <cell r="D18">
-            <v>2.9705923722907861</v>
-          </cell>
-          <cell r="E18">
-            <v>2.2279596894229479</v>
-          </cell>
-          <cell r="F18">
-            <v>1.9804086128203979</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>19-May</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>7.17022705078125</v>
-          </cell>
-          <cell r="D19">
-            <v>4.5000033730552831</v>
-          </cell>
-          <cell r="E19">
-            <v>3.3750150134107821</v>
-          </cell>
-          <cell r="F19">
-            <v>3.000013345254029</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>19-Jun</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>3.585113525390625</v>
-          </cell>
-          <cell r="D20">
-            <v>4.5000033730552831</v>
-          </cell>
-          <cell r="E20">
-            <v>3.3750150134107821</v>
-          </cell>
-          <cell r="F20">
-            <v>3.000013345254029</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>19-Jul</v>
-          </cell>
-          <cell r="B21">
-            <v>52</v>
-          </cell>
-          <cell r="C21">
-            <v>2.7925567626953129</v>
-          </cell>
-          <cell r="D21">
-            <v>2.9864883874106591</v>
-          </cell>
-          <cell r="E21">
-            <v>2.2398733709735499</v>
-          </cell>
-          <cell r="F21">
-            <v>1.9909985519764899</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>19-Aug</v>
-          </cell>
-          <cell r="B22">
-            <v>18</v>
-          </cell>
-          <cell r="C22">
-            <v>27.39627838134766</v>
-          </cell>
-          <cell r="D22">
-            <v>17.783020287207599</v>
-          </cell>
-          <cell r="E22">
-            <v>13.33727019165547</v>
-          </cell>
-          <cell r="F22">
-            <v>11.855351281471529</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>19-Sep</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>22.698139190673832</v>
-          </cell>
-          <cell r="D23">
-            <v>17.864706767635141</v>
-          </cell>
-          <cell r="E23">
-            <v>13.39853317867912</v>
-          </cell>
-          <cell r="F23">
-            <v>11.909807269937</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>19-Oct</v>
-          </cell>
-          <cell r="B24">
-            <v>3</v>
-          </cell>
-          <cell r="C24">
-            <v>14.349069595336911</v>
-          </cell>
-          <cell r="D24">
-            <v>12.76845686956724</v>
-          </cell>
-          <cell r="E24">
-            <v>9.576344418234374</v>
-          </cell>
-          <cell r="F24">
-            <v>8.512306149541665</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>19-Nov</v>
-          </cell>
-          <cell r="B25">
-            <v>1</v>
-          </cell>
-          <cell r="C25">
-            <v>8.674534797668457</v>
-          </cell>
-          <cell r="D25">
-            <v>8.2545128955754716</v>
-          </cell>
-          <cell r="E25">
-            <v>6.1908856197107536</v>
-          </cell>
-          <cell r="F25">
-            <v>5.5030094397428924</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>19-Dec</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>4.8372673988342294</v>
-          </cell>
-          <cell r="D26">
-            <v>4.7701689885992611</v>
-          </cell>
-          <cell r="E26">
-            <v>3.577627233359844</v>
-          </cell>
-          <cell r="F26">
-            <v>3.1801130963198609</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>20-Jan</v>
-          </cell>
-          <cell r="B27">
-            <v>4</v>
-          </cell>
-          <cell r="C27">
-            <v>2.4186336994171138</v>
-          </cell>
-          <cell r="D27">
-            <v>4.7701689885992611</v>
-          </cell>
-          <cell r="E27">
-            <v>3.577627233359844</v>
-          </cell>
-          <cell r="F27">
-            <v>3.1801130963198609</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>20-Feb</v>
-          </cell>
-          <cell r="B28">
-            <v>10</v>
-          </cell>
-          <cell r="C28">
-            <v>3.2093168497085571</v>
-          </cell>
-          <cell r="D28">
-            <v>2.9482980541564419</v>
-          </cell>
-          <cell r="E28">
-            <v>2.211223708870905</v>
-          </cell>
-          <cell r="F28">
-            <v>1.9655321856630259</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>20-Mar</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>6.6046584248542786</v>
-          </cell>
-          <cell r="D29">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E29">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F29">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>20-Apr</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>3.3023292124271388</v>
-          </cell>
-          <cell r="D30">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E30">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F30">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>20-May</v>
-          </cell>
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>1.6511646062135701</v>
-          </cell>
-          <cell r="D31">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E31">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F31">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>20-Jun</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>0.82558230310678482</v>
-          </cell>
-          <cell r="D32">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E32">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F32">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>20-Jul</v>
-          </cell>
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>0.41279115155339241</v>
-          </cell>
-          <cell r="D33">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E33">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F33">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>20-Aug</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>0.20639557577669621</v>
-          </cell>
-          <cell r="D34">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E34">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F34">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>20-Sep</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>0.1031977878883481</v>
-          </cell>
-          <cell r="D35">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E35">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F35">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>20-Oct</v>
-          </cell>
-          <cell r="B36">
-            <v>11</v>
-          </cell>
-          <cell r="C36">
-            <v>5.1598893944174051E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>5.7460286986616689</v>
-          </cell>
-          <cell r="E36">
-            <v>4.3095216256253499</v>
-          </cell>
-          <cell r="F36">
-            <v>3.830685889444756</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>20-Nov</v>
-          </cell>
-          <cell r="B37">
-            <v>3</v>
-          </cell>
-          <cell r="C37">
-            <v>5.525799446972087</v>
-          </cell>
-          <cell r="D37">
-            <v>1.9698655454784271</v>
-          </cell>
-          <cell r="E37">
-            <v>1.4773991729160469</v>
-          </cell>
-          <cell r="F37">
-            <v>1.3132437092587079</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>4.2629000000000001</v>
-          </cell>
-          <cell r="D38">
-            <v>2.1528339999999999</v>
-          </cell>
-          <cell r="E38">
-            <v>1.614625</v>
-          </cell>
-          <cell r="F38">
-            <v>1.4352229999999999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>4.2629000000000001</v>
-          </cell>
-          <cell r="D39">
-            <v>2.1528339999999999</v>
-          </cell>
-          <cell r="E39">
-            <v>1.614625</v>
-          </cell>
-          <cell r="F39">
-            <v>1.4352229999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>4.2629000000000001</v>
-          </cell>
-          <cell r="D40">
-            <v>2.1528339999999999</v>
-          </cell>
-          <cell r="E40">
-            <v>1.614625</v>
-          </cell>
-          <cell r="F40">
-            <v>1.4352229999999999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>4.2629000000000001</v>
-          </cell>
-          <cell r="D41">
-            <v>2.1528339999999999</v>
-          </cell>
-          <cell r="E41">
-            <v>1.614625</v>
-          </cell>
-          <cell r="F41">
-            <v>1.4352229999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>4.2629000000000001</v>
-          </cell>
-          <cell r="D42">
-            <v>2.1528339999999999</v>
-          </cell>
-          <cell r="E42">
-            <v>1.614625</v>
-          </cell>
-          <cell r="F42">
-            <v>1.4352229999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP005887</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SES_bip5887</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>cros_smoothed</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>SBA_smoothed</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>SBJ_smoothed</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>17-Dec</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>18-Jan</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>18-Feb</v>
-          </cell>
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>18-Mar</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0.12296490988614681</v>
-          </cell>
-          <cell r="D5">
-            <v>1.7486934390646469</v>
-          </cell>
-          <cell r="E5">
-            <v>2.4117076579132268</v>
-          </cell>
-          <cell r="F5">
-            <v>2.6457967397043669</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>18-Apr</v>
-          </cell>
-          <cell r="B6">
-            <v>10</v>
-          </cell>
-          <cell r="C6">
-            <v>0.1154047253544927</v>
-          </cell>
-          <cell r="D6">
-            <v>1.7486934390646469</v>
-          </cell>
-          <cell r="E6">
-            <v>2.4117076579132268</v>
-          </cell>
-          <cell r="F6">
-            <v>2.6457967397043669</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>18-May</v>
-          </cell>
-          <cell r="B7">
-            <v>52</v>
-          </cell>
-          <cell r="C7">
-            <v>0.72313390895840146</v>
-          </cell>
-          <cell r="D7">
-            <v>2.2670265825556322</v>
-          </cell>
-          <cell r="E7">
-            <v>2.8009654597841389</v>
-          </cell>
-          <cell r="F7">
-            <v>2.9916634021726218</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>18-Jun</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>3.8757615180228751</v>
-          </cell>
-          <cell r="D8">
-            <v>5.8181815013320826</v>
-          </cell>
-          <cell r="E8">
-            <v>5.8181829412644213</v>
-          </cell>
-          <cell r="F8">
-            <v>5.8181818602198341</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>18-Jul</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>3.6374701851209359</v>
-          </cell>
-          <cell r="D9">
-            <v>5.8181815013320826</v>
-          </cell>
-          <cell r="E9">
-            <v>5.8181829412644213</v>
-          </cell>
-          <cell r="F9">
-            <v>5.8181818602198341</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>18-Aug</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>3.4138295883574652</v>
-          </cell>
-          <cell r="D10">
-            <v>5.8181815013320826</v>
-          </cell>
-          <cell r="E10">
-            <v>5.8181829412644213</v>
-          </cell>
-          <cell r="F10">
-            <v>5.8181818602198341</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>18-Sep</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>3.2039389645079468</v>
-          </cell>
-          <cell r="D11">
-            <v>5.8181815013320826</v>
-          </cell>
-          <cell r="E11">
-            <v>5.8181829412644213</v>
-          </cell>
-          <cell r="F11">
-            <v>5.8181818602198341</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>18-Oct</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>3.0069529314822301</v>
-          </cell>
-          <cell r="D12">
-            <v>5.8181815013320826</v>
-          </cell>
-          <cell r="E12">
-            <v>5.8181829412644213</v>
-          </cell>
-          <cell r="F12">
-            <v>5.8181818602198341</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>18-Nov</v>
-          </cell>
-          <cell r="B13">
-            <v>10</v>
-          </cell>
-          <cell r="C13">
-            <v>2.822078083356431</v>
-          </cell>
-          <cell r="D13">
-            <v>5.8181815013320826</v>
-          </cell>
-          <cell r="E13">
-            <v>5.8181829412644213</v>
-          </cell>
-          <cell r="F13">
-            <v>5.8181818602198341</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>18-Dec</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>3.2633943441813691</v>
-          </cell>
-          <cell r="D14">
-            <v>5.0842589437707293</v>
-          </cell>
-          <cell r="E14">
-            <v>5.2777292797224273</v>
-          </cell>
-          <cell r="F14">
-            <v>5.2857047909160864</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>19-Jan</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>3.0627528484537572</v>
-          </cell>
-          <cell r="D15">
-            <v>5.0842589437707293</v>
-          </cell>
-          <cell r="E15">
-            <v>5.2777292797224273</v>
-          </cell>
-          <cell r="F15">
-            <v>5.2857047909160864</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>19-Feb</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>2.87444728444693</v>
-          </cell>
-          <cell r="D16">
-            <v>5.0842589437707293</v>
-          </cell>
-          <cell r="E16">
-            <v>5.2777292797224273</v>
-          </cell>
-          <cell r="F16">
-            <v>5.2857047909160864</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>19-Mar</v>
-          </cell>
-          <cell r="B17">
-            <v>6</v>
-          </cell>
-          <cell r="C17">
-            <v>2.6977192087946822</v>
-          </cell>
-          <cell r="D17">
-            <v>5.0842589437707293</v>
-          </cell>
-          <cell r="E17">
-            <v>5.2777292797224273</v>
-          </cell>
-          <cell r="F17">
-            <v>5.2857047909160864</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>19-Apr</v>
-          </cell>
-          <cell r="B18">
-            <v>11</v>
-          </cell>
-          <cell r="C18">
-            <v>2.900751538749339</v>
-          </cell>
-          <cell r="D18">
-            <v>4.6353096263584623</v>
-          </cell>
-          <cell r="E18">
-            <v>4.8975760114134426</v>
-          </cell>
-          <cell r="F18">
-            <v>4.9189735974117426</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>19-May</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>3.3987132173409398</v>
-          </cell>
-          <cell r="D19">
-            <v>4.9457345297004798</v>
-          </cell>
-          <cell r="E19">
-            <v>5.1603971292890174</v>
-          </cell>
-          <cell r="F19">
-            <v>5.1726264350026909</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>19-Jun</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>3.1897519850913469</v>
-          </cell>
-          <cell r="D20">
-            <v>4.9457345297004798</v>
-          </cell>
-          <cell r="E20">
-            <v>5.1603971292890174</v>
-          </cell>
-          <cell r="F20">
-            <v>5.1726264350026909</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>19-Jul</v>
-          </cell>
-          <cell r="B21">
-            <v>52</v>
-          </cell>
-          <cell r="C21">
-            <v>3.1166031122745368</v>
-          </cell>
-          <cell r="D21">
-            <v>4.5952439271002419</v>
-          </cell>
-          <cell r="E21">
-            <v>4.8349094276150746</v>
-          </cell>
-          <cell r="F21">
-            <v>4.8689968785263469</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>19-Aug</v>
-          </cell>
-          <cell r="B22">
-            <v>18</v>
-          </cell>
-          <cell r="C22">
-            <v>6.1220743588884918</v>
-          </cell>
-          <cell r="D22">
-            <v>7.1456639132196829</v>
-          </cell>
-          <cell r="E22">
-            <v>7.1499883632326648</v>
-          </cell>
-          <cell r="F22">
-            <v>7.0448719878610211</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>19-Sep</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>6.8523583869353066</v>
-          </cell>
-          <cell r="D23">
-            <v>7.683723269288671</v>
-          </cell>
-          <cell r="E23">
-            <v>7.6306652836532001</v>
-          </cell>
-          <cell r="F23">
-            <v>7.5113716015734351</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>19-Oct</v>
-          </cell>
-          <cell r="B24">
-            <v>3</v>
-          </cell>
-          <cell r="C24">
-            <v>6.799953300815206</v>
-          </cell>
-          <cell r="D24">
-            <v>7.5250757462367428</v>
-          </cell>
-          <cell r="E24">
-            <v>7.4782617529234816</v>
-          </cell>
-          <cell r="F24">
-            <v>7.3864800401358108</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>19-Nov</v>
-          </cell>
-          <cell r="B25">
-            <v>1</v>
-          </cell>
-          <cell r="C25">
-            <v>6.5663228432120526</v>
-          </cell>
-          <cell r="D25">
-            <v>7.2083338760378624</v>
-          </cell>
-          <cell r="E25">
-            <v>7.1823847850985336</v>
-          </cell>
-          <cell r="F25">
-            <v>7.1256990992564768</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>19-Dec</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>6.2240916498056684</v>
-          </cell>
-          <cell r="D26">
-            <v>6.7974332172201963</v>
-          </cell>
-          <cell r="E26">
-            <v>6.8010934178726394</v>
-          </cell>
-          <cell r="F26">
-            <v>6.7829033795934048</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>20-Jan</v>
-          </cell>
-          <cell r="B27">
-            <v>4</v>
-          </cell>
-          <cell r="C27">
-            <v>5.8414192153849314</v>
-          </cell>
-          <cell r="D27">
-            <v>6.7974332172201963</v>
-          </cell>
-          <cell r="E27">
-            <v>6.8010934178726394</v>
-          </cell>
-          <cell r="F27">
-            <v>6.7829033795934048</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>20-Feb</v>
-          </cell>
-          <cell r="B28">
-            <v>10</v>
-          </cell>
-          <cell r="C28">
-            <v>5.7282042414437182</v>
-          </cell>
-          <cell r="D28">
-            <v>6.3773744841994091</v>
-          </cell>
-          <cell r="E28">
-            <v>6.4376901807625204</v>
-          </cell>
-          <cell r="F28">
-            <v>6.4474708022482821</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>20-Mar</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>5.9908447316951676</v>
-          </cell>
-          <cell r="D29">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E29">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F29">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>20-Apr</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>5.622512890407771</v>
-          </cell>
-          <cell r="D30">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E30">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F30">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>20-May</v>
-          </cell>
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>5.2768269949564264</v>
-          </cell>
-          <cell r="D31">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E31">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F31">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>20-Jun</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>4.9523947169966247</v>
-          </cell>
-          <cell r="D32">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E32">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F32">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>20-Jul</v>
-          </cell>
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>4.6479093319485649</v>
-          </cell>
-          <cell r="D33">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E33">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F33">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>20-Aug</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>4.3621444558675471</v>
-          </cell>
-          <cell r="D34">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E34">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F34">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>20-Sep</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>4.0939491059044943</v>
-          </cell>
-          <cell r="D35">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E35">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F35">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>20-Oct</v>
-          </cell>
-          <cell r="B36">
-            <v>11</v>
-          </cell>
-          <cell r="C36">
-            <v>3.8422430644614849</v>
-          </cell>
-          <cell r="D36">
-            <v>6.5295047573719494</v>
-          </cell>
-          <cell r="E36">
-            <v>6.5613884436520831</v>
-          </cell>
-          <cell r="F36">
-            <v>6.5706297313718824</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>20-Nov</v>
-          </cell>
-          <cell r="B37">
-            <v>3</v>
-          </cell>
-          <cell r="C37">
-            <v>4.2823195327442027</v>
-          </cell>
-          <cell r="D37">
-            <v>5.4967807929184378</v>
-          </cell>
-          <cell r="E37">
-            <v>5.7425095750294766</v>
-          </cell>
-          <cell r="F37">
-            <v>5.7714957817339263</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>4.2034789999999997</v>
-          </cell>
-          <cell r="D38">
-            <v>5.3110229999999996</v>
-          </cell>
-          <cell r="E38">
-            <v>5.5485340000000001</v>
-          </cell>
-          <cell r="F38">
-            <v>5.5977540000000001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>4.2034789999999997</v>
-          </cell>
-          <cell r="D39">
-            <v>5.3110229999999996</v>
-          </cell>
-          <cell r="E39">
-            <v>5.5485340000000001</v>
-          </cell>
-          <cell r="F39">
-            <v>5.5977540000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>4.2034789999999997</v>
-          </cell>
-          <cell r="D40">
-            <v>5.3110229999999996</v>
-          </cell>
-          <cell r="E40">
-            <v>5.5485340000000001</v>
-          </cell>
-          <cell r="F40">
-            <v>5.5977540000000001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>4.2034789999999997</v>
-          </cell>
-          <cell r="D41">
-            <v>5.3110229999999996</v>
-          </cell>
-          <cell r="E41">
-            <v>5.5485340000000001</v>
-          </cell>
-          <cell r="F41">
-            <v>5.5977540000000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>4.2034789999999997</v>
-          </cell>
-          <cell r="D42">
-            <v>5.3110229999999996</v>
-          </cell>
-          <cell r="E42">
-            <v>5.5485340000000001</v>
-          </cell>
-          <cell r="F42">
-            <v>5.5977540000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -13510,8 +10325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB63421C-E783-4E38-971A-499FA26892FC}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13703,7 +10518,7 @@
         <v>5.6298389999999996</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:O7" si="0">M6-M5</f>
+        <f t="shared" ref="M7:N7" si="0">M6-M5</f>
         <v>5.1008027699999996</v>
       </c>
       <c r="N7" s="2">
@@ -13726,7 +10541,7 @@
         <v>5.1585121999999997</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" ref="T7:V7" si="1">U6-U5</f>
+        <f t="shared" ref="U7" si="1">U6-U5</f>
         <v>5.1627079</v>
       </c>
       <c r="V7" s="2">
@@ -13741,20 +10556,20 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="R8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -13763,35 +10578,35 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <f>(L6-M6)/M6</f>
         <v>4.9505524644509614E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>(L6-N6)/N6</f>
         <v>5.2008403152738213E-2</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <f>(L6-O6)/O6</f>
         <v>5.2047161208020123E-2</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
         <f>(S6-T6)/T6</f>
         <v>5.2064722006189321E-2</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <f>(S6-U6)/U6</f>
         <v>5.5407038830640312E-2</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <f>(S6-V6)/V6</f>
         <v>5.5632210622084212E-2</v>
       </c>
@@ -13803,35 +10618,35 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f>($M$6-L6)/L6</f>
         <v>-4.7170332582363694E-2</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <f>($M$6-N6)/N6</f>
         <v>2.3848168965822009E-3</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <f>($M$6-O6)/O6</f>
         <v>2.4217467215062204E-3</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <f>($T$6-S6)/S6</f>
         <v>-4.9488135964588523E-2</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
         <f>($T$6-U6)/U6</f>
         <v>3.1769117950058269E-3</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <f>($T$6-V6)/V6</f>
         <v>3.390940254219362E-3</v>
       </c>
@@ -13843,35 +10658,35 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f>($N$6-L6)/L6</f>
         <v>-4.9437250688184144E-2</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" ref="M11:O11" si="2">($N$6-M6)/M6</f>
+      <c r="M11" s="4">
+        <f t="shared" ref="M11" si="2">($N$6-M6)/M6</f>
         <v>-2.3791430759752289E-3</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
         <f>($N$6-O6)/O6</f>
         <v>3.6841963586754592E-5</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <f>($U$6-S6)/S6</f>
         <v>-5.2498265401024487E-2</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <f>($U$6-T6)/T6</f>
         <v>-3.166850988746652E-3</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
         <f>($U$6-V6)/V6</f>
         <v>2.1335066297585483E-4</v>
       </c>
@@ -13883,38 +10698,38 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f>($O$6-L6)/L6</f>
         <v>-4.9472269996201149E-2</v>
       </c>
-      <c r="M12" s="5">
-        <f t="shared" ref="M12:O12" si="3">($O$6-M6)/M6</f>
+      <c r="M12" s="4">
+        <f t="shared" ref="M12:N12" si="3">($O$6-M6)/M6</f>
         <v>-2.4158960332082984E-3</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f t="shared" si="3"/>
         <v>-3.684060630647854E-5</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="R12" s="4" t="s">
+      <c r="O12" s="4"/>
+      <c r="R12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <f>($V$6-S6)/S6</f>
         <v>-5.2700372404608745E-2</v>
       </c>
-      <c r="T12" s="5">
-        <f t="shared" ref="T12:V12" si="4">($V$6-T6)/T6</f>
+      <c r="T12" s="4">
+        <f t="shared" ref="T12:U12" si="4">($V$6-T6)/T6</f>
         <v>-3.3794806372880273E-3</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <f t="shared" si="4"/>
         <v>-2.133051541797944E-4</v>
       </c>
-      <c r="V12" s="5"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -13923,20 +10738,20 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="R13" s="6" t="s">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="R13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -13945,35 +10760,35 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4">
         <f>(L5-M5)/M5</f>
         <v>1.0346855073526728E-2</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <f>(L5-N5)/N5</f>
         <v>1.8972091521230861E-2</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <f>(L5-O5)/O5</f>
         <v>1.9084891207188408E-2</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5">
+      <c r="S14" s="3"/>
+      <c r="T14" s="4">
         <f>(S5-T5)/T5</f>
         <v>5.1805738917274038E-2</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="4">
         <f>(S5-U5)/U5</f>
         <v>5.8228025517361739E-2</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="4">
         <f>(S5-V5)/V5</f>
         <v>5.9156726961047588E-2</v>
       </c>
@@ -13985,35 +10800,35 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f>(M5-L5)/L5</f>
         <v>-1.0240894027203903E-2</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5">
+      <c r="M15" s="3"/>
+      <c r="N15" s="4">
         <f>(M5-N5)/N5</f>
         <v>8.5369063152836207E-3</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <f>(M5-O5)/O5</f>
         <v>8.6485508316109742E-3</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="4">
         <f>(T5-S5)/S5</f>
         <v>-4.9254094173894432E-2</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5">
+      <c r="T15" s="3"/>
+      <c r="U15" s="4">
         <f>(T5-U5)/U5</f>
         <v>6.1059626910752417E-3</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="4">
         <f>(T5-V5)/V5</f>
         <v>6.988921786394358E-3</v>
       </c>
@@ -14025,35 +10840,35 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f>(N5-L5)/L5</f>
         <v>-1.8618852939247126E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f>(N5-M5)/M5</f>
         <v>-8.4646444387180969E-3</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5">
+      <c r="N16" s="3"/>
+      <c r="O16" s="4">
         <f>(N5-O5)/O5</f>
         <v>1.1069948519311113E-4</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <f>(U5-S5)/S5</f>
         <v>-5.5024081873936752E-2</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="4">
         <f>(U5-T5)/T5</f>
         <v>-6.0689061763865883E-3</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="5">
+      <c r="U16" s="3"/>
+      <c r="V16" s="4">
         <f>(U5-V5)/V5</f>
         <v>8.7760049941203763E-4</v>
       </c>
@@ -14065,38 +10880,38 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f>(O5-L5)/L5</f>
         <v>-1.872747930212253E-2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f>(O5-M5)/M5</f>
         <v>-8.5743947428273352E-3</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f>(O5-N5)/N5</f>
         <v>-1.1068723217349208E-4</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="R17" s="4" t="s">
+      <c r="O17" s="3"/>
+      <c r="R17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <f>(V5-S5)/S5</f>
         <v>-5.5852666045733558E-2</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="4">
         <f>(V5-T5)/T5</f>
         <v>-6.9404157634584875E-3</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <f>(V5-U5)/U5</f>
         <v>-8.7683099209547467E-4</v>
       </c>
-      <c r="V17" s="4"/>
+      <c r="V17" s="3"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -14105,6 +10920,10 @@
       <c r="B18">
         <v>11</v>
       </c>
+      <c r="D18">
+        <f>COUNTIF(B2:B37,0)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -14309,13 +11128,13 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="R25" t="s">
         <v>45</v>
       </c>
@@ -14343,29 +11162,29 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
         <f>(L23-M23)/M23</f>
         <v>4.1980344602519516E-2</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <f>(L23-N23)/N23</f>
         <v>7.0662439782324046E-2</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <f>(L23-O23)/O23</f>
         <v>7.6038007964576604E-2</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -14374,38 +11193,38 @@
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <f>($M$23-L23)/L23</f>
         <v>-4.02889985593093E-2</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
         <f>($M$23-N23)/N23</f>
         <v>2.7526522288427415E-2</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="4">
         <f>($M$23-O23)/O23</f>
         <v>3.268551421192973E-2</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="4">
         <f>(S24-L6)/L6</f>
         <v>-3.294556957572599E-3</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="4">
         <f>(S24-M6)/M6</f>
         <v>4.6047868916281168E-2</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="4">
         <f>(S24-N6)/N6</f>
         <v>4.854250154870652E-2</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="4">
         <f>(S24-O6)/O6</f>
         <v>4.8581131913367742E-2</v>
       </c>
@@ -14417,38 +11236,38 @@
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <f>($N$23-L23)/L23</f>
         <v>-6.5998803317215832E-2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <f>($N$23-M23)/M23</f>
         <v>-2.6789111221306949E-2</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5">
-        <f t="shared" ref="M28:O28" si="6">($N$23-O23)/O23</f>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4">
+        <f t="shared" ref="O28" si="6">($N$23-O23)/O23</f>
         <v>5.0207871150737843E-3</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <f>($S$24-S6)/S6</f>
         <v>-1.1505150185580697E-2</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="4">
         <f>($S$24-T6)/T6</f>
         <v>3.9960559374556913E-2</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="4">
         <f>($S$24-U6)/U6</f>
         <v>4.3264422341974799E-2</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="4">
         <f>($S$24-V6)/V6</f>
         <v>4.3487003498140581E-2</v>
       </c>
@@ -14460,38 +11279,38 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <f>($O$23-L23)/L23</f>
         <v>-7.0664797527374881E-2</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <f>($O$23-M23)/M23</f>
         <v>-3.1650985476321829E-2</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="4">
         <f>($O$23-N23)/N23</f>
         <v>-4.9957047450590788E-3</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="R29" s="4" t="s">
+      <c r="O29" s="4"/>
+      <c r="R29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="4">
         <f>($T$24-L6)/L6</f>
         <v>-1.4034218799539595E-2</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="4">
         <f>($T$24-M6)/M6</f>
         <v>3.4776534480322974E-2</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="4">
         <f>($T$24-N6)/N6</f>
         <v>3.7244287043938423E-2</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="4">
         <f>($T$24-O6)/O6</f>
         <v>3.7282501160192265E-2</v>
       </c>
@@ -14503,29 +11322,29 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="R30" s="4" t="s">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="R30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="4">
         <f>($T$24-S6)/S6</f>
         <v>-2.2156341561768367E-2</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="4">
         <f>($T$24-T6)/T6</f>
         <v>2.8754816680333306E-2</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="4">
         <f t="shared" ref="U30:V30" si="7">($T$24-U6)/U6</f>
         <v>3.2023079991614113E-2</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="4">
         <f t="shared" si="7"/>
         <v>3.2243262799936709E-2</v>
       </c>
@@ -14537,38 +11356,38 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5">
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
         <f>(L22-M22)/M22</f>
         <v>4.8573448073043111E-2</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <f>(L22-N22)/N22</f>
         <v>0.15936087741746288</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="4">
         <f>(L22-O22)/O22</f>
         <v>0.19912459380023848</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="4">
         <f>($U$24-L6)/L6</f>
         <v>-2.0520468393820979E-2</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="4">
         <f>($U$24-M6)/M6</f>
         <v>2.7969179696901453E-2</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="4">
         <f t="shared" ref="U31:V31" si="8">($U$24-N6)/N6</f>
         <v>3.0420697965808367E-2</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="4">
         <f t="shared" si="8"/>
         <v>3.0458660687641862E-2</v>
       </c>
@@ -14580,38 +11399,38 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <f>(M22-L22)/L22</f>
         <v>-4.6323362624054842E-2</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5">
+      <c r="M32" s="3"/>
+      <c r="N32" s="4">
         <f>(M22-N22)/N22</f>
         <v>0.10565538308071135</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <f>(M22-O22)/O22</f>
         <v>0.14357711041020757</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="4">
         <f>($U$24-S6)/S6</f>
         <v>-2.8589159164315651E-2</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="4">
         <f>($U$24-T6)/T6</f>
         <v>2.1987076217592879E-2</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="4">
         <f>($U$24-U6)/U6</f>
         <v>2.5233839014372067E-2</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="4">
         <f>($U$24-V6)/V6</f>
         <v>2.5452573333631066E-2</v>
       </c>
@@ -14623,38 +11442,38 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <f>(N22-L22)/L22</f>
         <v>-0.13745580045140696</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <f>(N22-M22)/M22</f>
         <v>-9.5559054563928852E-2</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5">
+      <c r="N33" s="3"/>
+      <c r="O33" s="4">
         <f>(N22-O22)/O22</f>
         <v>3.429796291845847E-2</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="R33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="4">
         <f>($V$24-L6)/L6</f>
         <v>-2.2537901741775689E-2</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="4">
         <f t="shared" ref="T33:V33" si="9">($V$24-M6)/M6</f>
         <v>2.5851872252620915E-2</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33" s="4">
         <f t="shared" si="9"/>
         <v>2.8298341130959449E-2</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="4">
         <f t="shared" si="9"/>
         <v>2.8336225660999716E-2</v>
       </c>
@@ -14666,38 +11485,38 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <f>(O22-L22)/L22</f>
         <v>-0.16605830188936191</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <f>(O22-M22)/M22</f>
         <v>-0.12555087812023943</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <f>(O22-N22)/N22</f>
         <v>-3.3160621163441699E-2</v>
       </c>
-      <c r="O34" s="4"/>
-      <c r="R34" s="4" t="s">
+      <c r="O34" s="3"/>
+      <c r="R34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="4">
         <f>($V$24-S6)/S6</f>
         <v>-3.0589973435189662E-2</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="4">
         <f t="shared" ref="T34:V34" si="10">($V$24-T6)/T6</f>
         <v>1.9882090107919793E-2</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="4">
         <f t="shared" si="10"/>
         <v>2.3122165549498839E-2</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="4">
         <f t="shared" si="10"/>
         <v>2.3340449341824117E-2</v>
       </c>
@@ -14709,13 +11528,13 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -14724,22 +11543,22 @@
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="4">
         <f>($S$23-L5)/L5</f>
         <v>-6.7546535533855784E-2</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="4">
         <f t="shared" ref="T36:V36" si="11">($S$23-M5)/M5</f>
         <v>-5.7898574674216691E-2</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="4">
         <f t="shared" si="11"/>
         <v>-4.9855943066715314E-2</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36" s="4">
         <f t="shared" si="11"/>
         <v>-4.9750762608753503E-2</v>
       </c>
@@ -14751,148 +11570,148 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="R37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="4">
         <f>($S$23-S5)/S5</f>
         <v>-0.10600768206470504</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="4">
         <f>($S$23-T5)/T5</f>
         <v>-5.9693749447700513E-2</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="4">
         <f t="shared" ref="U37:V37" si="12">($S$23-U5)/U5</f>
         <v>-5.3952274563643321E-2</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37" s="4">
         <f t="shared" si="12"/>
         <v>-5.3122022607332751E-2</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="4">
         <f>($T$23-L5)/L5</f>
         <v>1.2280525689924658E-2</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="4">
         <f>($T$23-M5)/M5</f>
         <v>2.2754445582991757E-2</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="4">
         <f>($T$23-N5)/N5</f>
         <v>3.1485604468473601E-2</v>
       </c>
-      <c r="V38" s="5">
-        <f t="shared" ref="T38:V38" si="13">($T$23-O5)/O5</f>
+      <c r="V38" s="4">
+        <f t="shared" ref="V38" si="13">($T$23-O5)/O5</f>
         <v>3.1599789393872361E-2</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R39" s="4" t="s">
+      <c r="R39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="4">
         <f>($T$23-S5)/S5</f>
         <v>-2.9473268051595527E-2</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="4">
         <f t="shared" ref="T39:V39" si="14">($T$23-T5)/T5</f>
         <v>2.0805586435958718E-2</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="4">
         <f t="shared" si="14"/>
         <v>2.7038587261577863E-2</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39" s="4">
         <f t="shared" si="14"/>
         <v>2.7939916838674059E-2</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="4">
         <f>($U$23-L5)/L5</f>
         <v>1.2414030993974678E-2</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="4">
         <f>($U$23-M5)/M5</f>
         <v>2.2889332247074332E-2</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="4">
         <f t="shared" ref="U40:V40" si="15">($U$23-N5)/N5</f>
         <v>3.1621642647370628E-2</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40" s="4">
         <f t="shared" si="15"/>
         <v>3.1735842632125762E-2</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="4">
         <f>($U$23-S5)/S5</f>
         <v>-2.934526947496665E-2</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="4">
         <f t="shared" ref="T41:V41" si="16">($U$23-T5)/T5</f>
         <v>2.0940216073430218E-2</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="4">
         <f t="shared" si="16"/>
         <v>2.7174038942592876E-2</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41" s="4">
         <f t="shared" si="16"/>
         <v>2.8075487392151977E-2</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="4">
         <f>($V$23-L5)/L5</f>
         <v>1.1128623705384049E-2</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="4">
         <f t="shared" ref="T42:V42" si="17">($V$23-M5)/M5</f>
         <v>2.1590625035558197E-2</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="4">
         <f t="shared" si="17"/>
         <v>3.0311848494058796E-2</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="4">
         <f t="shared" si="17"/>
         <v>3.0425903485275452E-2</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="4">
         <f>($V$23-S5)/S5</f>
         <v>-3.0577657240372161E-2</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="4">
         <f t="shared" ref="T43:V43" si="18">($V$23-T5)/T5</f>
         <v>1.9643983549205261E-2</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="4">
         <f t="shared" si="18"/>
         <v>2.5869891670936049E-2</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="4">
         <f t="shared" si="18"/>
         <v>2.6770195600198235E-2</v>
       </c>
@@ -14917,8 +11736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9061C-BA2B-48D4-86ED-690DF5E82F8D}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16178,13 +12997,13 @@
       <c r="F38">
         <v>4.9088450000000003</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39">
@@ -16199,19 +13018,19 @@
       <c r="F39">
         <v>4.9088450000000003</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <f>(M36-N36)/N36</f>
         <v>4.9505524644509614E-2</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="4">
         <f>(M36-O36)/O36</f>
         <v>5.2008403152738213E-2</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="4">
         <f>(M36-P36)/P36</f>
         <v>5.2047161208020123E-2</v>
       </c>
@@ -16229,19 +13048,19 @@
       <c r="F40">
         <v>4.9088450000000003</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <f>($N$36-M36)/M36</f>
         <v>-4.7170332582363694E-2</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4">
         <f t="shared" ref="O40:P40" si="0">($N$36-O36)/O36</f>
         <v>2.3848168965822009E-3</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="4">
         <f t="shared" si="0"/>
         <v>2.4217467215062204E-3</v>
       </c>
@@ -16259,19 +13078,19 @@
       <c r="F41">
         <v>4.9088450000000003</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="4">
         <f>($O$36-M36)/M36</f>
         <v>-4.9437250688184144E-2</v>
       </c>
-      <c r="N41" s="5">
-        <f t="shared" ref="N41:P41" si="1">($O$36-N36)/N36</f>
+      <c r="N41" s="4">
+        <f t="shared" ref="N41" si="1">($O$36-N36)/N36</f>
         <v>-2.3791430759752289E-3</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
         <f>($O$36-P36)/P36</f>
         <v>3.6841963586754592E-5</v>
       </c>
@@ -16289,103 +13108,103 @@
       <c r="F42">
         <v>4.9088450000000003</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <f>($P$36-M36)/M36</f>
         <v>-4.9472269996201149E-2</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" ref="N42:P42" si="2">($P$36-N36)/N36</f>
+      <c r="N42" s="4">
+        <f t="shared" ref="N42" si="2">($P$36-N36)/N36</f>
         <v>-2.4158960332082984E-3</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <f>($P$36-O36)/O36</f>
         <v>-3.684060630647854E-5</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="5">
+      <c r="M44" s="3"/>
+      <c r="N44" s="4">
         <f>(M35-N35)/N35</f>
         <v>1.0346855073526728E-2</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <f>(M35-O35)/O35</f>
         <v>1.8972091521230861E-2</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="4">
         <f>(M35-P35)/P35</f>
         <v>1.9084891207188408E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="4">
         <f>(N35-M35)/M35</f>
         <v>-1.0240894027203903E-2</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="5">
+      <c r="N45" s="3"/>
+      <c r="O45" s="4">
         <f>(N35-O35)/O35</f>
         <v>8.5369063152836207E-3</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="4">
         <f>(N35-P35)/P35</f>
         <v>8.6485508316109742E-3</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <f>(O35-M35)/M35</f>
         <v>-1.8618852939247126E-2</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <f>(O35-N35)/N35</f>
         <v>-8.4646444387180969E-3</v>
       </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="5">
+      <c r="O46" s="3"/>
+      <c r="P46" s="4">
         <f>(O35-P35)/P35</f>
         <v>1.1069948519311113E-4</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <f>(P35-M35)/M35</f>
         <v>-1.872747930212253E-2</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <f>(P35-N35)/N35</f>
         <v>-8.5743947428273352E-3</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="4">
         <f>(P35-O35)/O35</f>
         <v>-1.1068723217349208E-4</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16401,7 +13220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27681CB0-7D76-482E-80ED-22019BC9E411}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="L33" sqref="L33:P47"/>
     </sheetView>
   </sheetViews>
@@ -17657,13 +14476,13 @@
       <c r="F38">
         <v>4.1230000000000002</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39">
@@ -17678,19 +14497,19 @@
       <c r="F39">
         <v>4.1230000000000002</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <f>(M36-N36)/N36</f>
         <v>5.2064722006189321E-2</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="4">
         <f>(M36-O36)/O36</f>
         <v>5.5407038830640312E-2</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="4">
         <f>(M36-P36)/P36</f>
         <v>5.5632210622084212E-2</v>
       </c>
@@ -17708,19 +14527,19 @@
       <c r="F40">
         <v>4.1230000000000002</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <f>($N$36-M36)/M36</f>
         <v>-4.9488135964588523E-2</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5">
-        <f t="shared" ref="O40:Q40" si="0">($N$36-O36)/O36</f>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4">
+        <f t="shared" ref="O40:P40" si="0">($N$36-O36)/O36</f>
         <v>3.1769117950058269E-3</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="4">
         <f t="shared" si="0"/>
         <v>3.390940254219362E-3</v>
       </c>
@@ -17738,19 +14557,19 @@
       <c r="F41">
         <v>4.1230000000000002</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="4">
         <f>($O$36-M36)/M36</f>
         <v>-5.2498265401024487E-2</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="4">
         <f t="shared" ref="N41:P41" si="1">($O$36-N36)/N36</f>
         <v>-3.166850988746652E-3</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
         <f t="shared" si="1"/>
         <v>2.1335066297585483E-4</v>
       </c>
@@ -17768,103 +14587,103 @@
       <c r="F42">
         <v>4.1230000000000002</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <f>($P$36-M36)/M36</f>
         <v>-5.2700372404608745E-2</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" ref="N42:P42" si="2">($P$36-N36)/N36</f>
+      <c r="N42" s="4">
+        <f t="shared" ref="N42:O42" si="2">($P$36-N36)/N36</f>
         <v>-3.3794806372880273E-3</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <f t="shared" si="2"/>
         <v>-2.133051541797944E-4</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="5">
+      <c r="M44" s="3"/>
+      <c r="N44" s="4">
         <f>(M35-N35)/N35</f>
         <v>5.1805738917274038E-2</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <f>(M35-O35)/O35</f>
         <v>5.8228025517361739E-2</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="4">
         <f>(M35-P35)/P35</f>
         <v>5.9156726961047588E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="4">
         <f>(N35-M35)/M35</f>
         <v>-4.9254094173894432E-2</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="5">
+      <c r="N45" s="3"/>
+      <c r="O45" s="4">
         <f>(N35-O35)/O35</f>
         <v>6.1059626910752417E-3</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="4">
         <f>(N35-P35)/P35</f>
         <v>6.988921786394358E-3</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <f>(O35-M35)/M35</f>
         <v>-5.5024081873936752E-2</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <f>(O35-N35)/N35</f>
         <v>-6.0689061763865883E-3</v>
       </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="5">
+      <c r="O46" s="3"/>
+      <c r="P46" s="4">
         <f>(O35-P35)/P35</f>
         <v>8.7760049941203763E-4</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <f>(P35-M35)/M35</f>
         <v>-5.5852666045733558E-2</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <f>(P35-N35)/N35</f>
         <v>-6.9404157634584875E-3</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="4">
         <f>(P35-O35)/O35</f>
         <v>-8.7683099209547467E-4</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17880,8 +14699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D29E83-D995-432E-BADE-B18090F1DA3D}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:P47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19132,13 +15951,13 @@
       <c r="F38">
         <v>1.4352229999999999</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39">
@@ -19153,19 +15972,19 @@
       <c r="F39">
         <v>1.4352229999999999</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <f>(M36-N36)/N36</f>
         <v>4.1980344602519516E-2</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="4">
         <f>(M36-O36)/O36</f>
         <v>7.0662439782324046E-2</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="4">
         <f>(M36-P36)/P36</f>
         <v>7.6038007964576604E-2</v>
       </c>
@@ -19183,19 +16002,19 @@
       <c r="F40">
         <v>1.4352229999999999</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <f>($N$36-M36)/M36</f>
         <v>-4.02889985593093E-2</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4">
         <f>($N$36-O36)/O36</f>
         <v>2.7526522288427415E-2</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="4">
         <f>($N$36-P36)/P36</f>
         <v>3.268551421192973E-2</v>
       </c>
@@ -19213,19 +16032,19 @@
       <c r="F41">
         <v>1.4352229999999999</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="4">
         <f>($O$36-M36)/M36</f>
         <v>-6.5998803317215832E-2</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="4">
         <f>($O$36-N36)/N36</f>
         <v>-2.6789111221306949E-2</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
         <f>($O$36-P36)/P36</f>
         <v>5.0207871150737843E-3</v>
       </c>
@@ -19243,103 +16062,103 @@
       <c r="F42">
         <v>1.4352229999999999</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <f>($P$36-M36)/M36</f>
         <v>-7.0664797527374881E-2</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" ref="N42:P42" si="0">($P$36-N36)/N36</f>
+      <c r="N42" s="4">
+        <f t="shared" ref="N42" si="0">($P$36-N36)/N36</f>
         <v>-3.1650985476321829E-2</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <f>($P$36-O36)/O36</f>
         <v>-4.9957047450590788E-3</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="5">
+      <c r="M44" s="3"/>
+      <c r="N44" s="4">
         <f>(M35-N35)/N35</f>
         <v>4.8573448073043111E-2</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <f>(M35-O35)/O35</f>
         <v>0.15936087741746288</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="4">
         <f>(M35-P35)/P35</f>
         <v>0.19912459380023848</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="4">
         <f>(N35-M35)/M35</f>
         <v>-4.6323362624054842E-2</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="5">
+      <c r="N45" s="3"/>
+      <c r="O45" s="4">
         <f>(N35-O35)/O35</f>
         <v>0.10565538308071135</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="4">
         <f>(N35-P35)/P35</f>
         <v>0.14357711041020757</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <f>(O35-M35)/M35</f>
         <v>-0.13745580045140696</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <f>(O35-N35)/N35</f>
         <v>-9.5559054563928852E-2</v>
       </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="5">
+      <c r="O46" s="3"/>
+      <c r="P46" s="4">
         <f>(O35-P35)/P35</f>
         <v>3.429796291845847E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <f>(P35-M35)/M35</f>
         <v>-0.16605830188936191</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <f>(P35-N35)/N35</f>
         <v>-0.12555087812023943</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="4">
         <f>(P35-O35)/O35</f>
         <v>-3.3160621163441699E-2</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19355,7 +16174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABCA225-E7BC-489D-B5FC-31296142288C}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33:P38"/>
     </sheetView>
   </sheetViews>
@@ -20633,11 +17452,11 @@
       <c r="F39">
         <v>5.5977540000000001</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C40">
@@ -20652,11 +17471,11 @@
       <c r="F40">
         <v>5.5977540000000001</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C41">
@@ -20671,11 +17490,11 @@
       <c r="F41">
         <v>5.5977540000000001</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C42">
@@ -20690,109 +17509,109 @@
       <c r="F42">
         <v>5.5977540000000001</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L44" s="4"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L45" s="4"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L46" s="4"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L47" s="4"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
     </row>
     <row r="49" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L49" s="4"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
     </row>
     <row r="50" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L50" s="4"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
     </row>
     <row r="51" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L51" s="4"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
     </row>
     <row r="52" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L52" s="4"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
     </row>
     <row r="53" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L53" s="4"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
     </row>
     <row r="54" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L54" s="4"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
     </row>
     <row r="55" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L55" s="4"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
     </row>
     <row r="56" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L56" s="4"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/bip5887_data.xlsx
+++ b/bip5887_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Esteban\TESIS\Tesis\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359FA64-7127-4D29-9151-302446B08329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC83EB-EFF5-492A-999A-AFD4FF32B213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{91D287CC-EE7F-49F7-8D19-7A4C550A5EAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{91D287CC-EE7F-49F7-8D19-7A4C550A5EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="0.15" sheetId="3" r:id="rId3"/>
     <sheet name="0.5" sheetId="4" r:id="rId4"/>
     <sheet name="Opt." sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="67">
   <si>
     <t>X</t>
   </si>
@@ -231,6 +232,15 @@
   <si>
     <t>SBJ (0.15)</t>
   </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>Cros.</t>
+  </si>
+  <si>
+    <t>opt.</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +304,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10325,8 +10344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB63421C-E783-4E38-971A-499FA26892FC}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14699,7 +14718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D29E83-D995-432E-BADE-B18090F1DA3D}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
@@ -16172,10 +16191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABCA225-E7BC-489D-B5FC-31296142288C}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:P38"/>
+      <selection activeCell="K43" sqref="K43:V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17177,7 +17196,7 @@
         <v>-4.9523947169966247</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -17221,7 +17240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -17265,7 +17284,7 @@
         <v>6.0359389999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -17312,7 +17331,7 @@
         <v>0.19759379999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -17359,7 +17378,7 @@
         <v>7.2139457</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -17406,7 +17425,7 @@
         <v>12.4767045</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>4.2034789999999997</v>
       </c>
@@ -17439,7 +17458,7 @@
         <v>5.2627588000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>4.2034789999999997</v>
       </c>
@@ -17458,7 +17477,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>4.2034789999999997</v>
       </c>
@@ -17477,7 +17496,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>4.2034789999999997</v>
       </c>
@@ -17496,7 +17515,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>4.2034789999999997</v>
       </c>
@@ -17515,42 +17534,88 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L43" s="3"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L44" s="3"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K43" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R44" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s">
+        <v>65</v>
+      </c>
+      <c r="U44" t="s">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L45" s="3"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L46" s="3"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L47" s="3"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -17614,11 +17679,1475 @@
       <c r="P56" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="T43:V43"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="L48:P48"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB97240C-E9F1-4892-924E-920E90AB7B5F}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>44638</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.5284750000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.4115060000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.3884619999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.9999950000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.9999989999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.000051</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.0413840000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.0000020000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.5284750000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.4115060000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.3884619999999996</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.9999950000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.9999989999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7.9999979999999997</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.000051</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.0413840000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.0000020000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>44699</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.075628</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.870355</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.8496160000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.0999990000000004</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7.099996</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.0999980000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.9999989999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.9999989999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.9999989999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.0419620000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.071588</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.029725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>44730</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.5680649999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.2833199999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.2646540000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.1849990000000004</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6.1849970000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.1849980000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.040203</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.0693330000000001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1.0288409999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>44760</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.5680649999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.2833199999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.2646540000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.1849990000000004</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.1849970000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.1849980000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.040203</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.0693330000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.0288409999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.5680649999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.2833199999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.2646540000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.1849990000000004</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.1849970000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.1849980000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.040203</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.0693330000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.0288409999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>44822</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5.5680649999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.2833199999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.2646540000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.1849990000000004</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.1849970000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.1849980000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.040203</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.0693330000000001</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.0288409999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>44852</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.5680649999999998</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.2833199999999998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.2646540000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6.1849990000000004</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.1849970000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.1849980000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.040203</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.0693330000000001</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.0288409999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>44883</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.5680649999999998</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.2833199999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.2646540000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.1849990000000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.1849970000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.1849980000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.040203</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.0693330000000001</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.0288409999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.6112590000000004</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.254988</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.2381890000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.1572490000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6.1572469999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6.1572480000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.248081</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.2246889999999999</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.176601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.6112590000000004</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.254988</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.2381890000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.1572490000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6.1572469999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.1572480000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.248081</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.2246889999999999</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.176601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>44611</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5.6112590000000004</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.254988</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.2381890000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.1572490000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.1572469999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.1572480000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.248081</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.2246889999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.176601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>44639</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.6112590000000004</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.254988</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.2381890000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.1572490000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.1572469999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.1572480000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.248081</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.2246889999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.176601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.4501330000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.0294889999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6.0143700000000004</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5.8336620000000003</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.8336600000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.8336610000000002</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.363421</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.3121339999999999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.260521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>44700</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5.0051189999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.5265399999999998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.5129330000000003</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.1086119999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5.1086109999999998</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.1086119999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.625</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.625</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2.625</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.3481890000000001</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.3022990000000001</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.2527779999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>44731</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.0051189999999997</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.5265399999999998</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.5129330000000003</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.1086119999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5.1086109999999998</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5.1086119999999999</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2.625</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.625</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.625</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.3481890000000001</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.3022990000000001</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.2527779999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>44761</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.7046080000000003</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.1738860000000004</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.1616400000000002</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.6423199999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.6423189999999996</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4.6423199999999998</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.3125</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2.3125</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.3125</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.375508</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.324282</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.274988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.3341469999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.7564970000000004</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.745476</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.0959719999999997</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.0959719999999997</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4.0959719999999997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.65625</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.65625</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.65625</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.3597699999999999</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.314065</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.2668140000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>44823</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.0007320000000002</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.3808480000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.3709280000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.6315770000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.6315759999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3.6315759999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.328125</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.328125</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.328125</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.3446910000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.3041689999999999</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.2588839999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>44853</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.7006589999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.0427629999999999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.0338349999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.2368399999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.2368389999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3.2368399999999999</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.1640619999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.1640619999999999</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.1640619999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.330244</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.2945850000000001</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.2511890000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>44884</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.430593</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.7384870000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3.7304520000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.9013140000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.9013140000000002</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.9013140000000002</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.082031</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.082031</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.082031</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.3164020000000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1.285304</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1.2437229999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3.1875339999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.4646379999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.4574069999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.616117</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.6161159999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.616117</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.0410159999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.0410159999999999</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.0410159999999999</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.3031410000000001</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.2763139999999999</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.236478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.1875339999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.4646379999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.4574069999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.616117</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.6161159999999999</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.616117</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.0410159999999999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.0410159999999999</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1.0410159999999999</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.3031410000000001</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.2763139999999999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1.236478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>44612</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.0687799999999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.318174</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.3116660000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.5236990000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2.5236990000000001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2.5236990000000001</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.520508</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.520508</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.520508</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.3323480000000001</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1.2991159999999999</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1.2591730000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>44640</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>44701</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>44732</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>44762</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>44824</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>44854</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2.8619020000000002</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3.086357</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.0804990000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.2951440000000001</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1.260254</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1.318419</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1.2896920000000001</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1.2514689999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>44885</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3.375712</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3.5777209999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.5724490000000002</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3.1508729999999998</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3.1508729999999998</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3.1508729999999998</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4.6301269999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4.6301269999999999</v>
+      </c>
+      <c r="J38" s="2">
+        <v>4.6301269999999999</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.5984609999999999</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1.5011209999999999</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1.4520580000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bip5887_data.xlsx
+++ b/bip5887_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Agregate-Disaggregate" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="119">
   <si>
     <t>X</t>
   </si>
@@ -386,6 +383,21 @@
   <si>
     <t>Aggr. 9 level</t>
   </si>
+  <si>
+    <t>Agregation level</t>
+  </si>
+  <si>
+    <t>Obs.</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,19 +462,25 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,6 +514,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1204,25 +1223,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5485</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11522</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,16 +1434,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1442,10 +1461,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1454,43 +1473,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -1502,19 +1521,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,7 +1781,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1946,22 +1964,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10001</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11001</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,16 +2172,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2181,10 +2199,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2193,43 +2211,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2241,19 +2259,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,7 +2413,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2502,7 +2519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2686,19 +2702,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5485</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13522</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2891,16 +2907,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2918,10 +2934,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2930,43 +2946,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2978,19 +2994,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,7 +3148,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3239,7 +3254,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3423,16 +3437,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14002</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10000</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,16 +3639,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3652,10 +3666,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3664,43 +3678,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -3712,19 +3726,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,7 +3880,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4161,16 +4174,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10006</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13001</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4363,16 +4376,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4390,10 +4403,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4402,43 +4415,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -4450,19 +4463,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9294,7 +9307,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10883,7 +10895,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10972,7 +10983,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11555,19 +11565,19 @@
                   <c:v>5.84375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>775.0394</c:v>
+                  <c:v>4.9694890000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>775.0394</c:v>
+                  <c:v>4.9694890000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>775.0394</c:v>
+                  <c:v>4.9694890000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>775.0394</c:v>
+                  <c:v>4.9694890000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>775.0394</c:v>
+                  <c:v>4.9694890000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11732,19 +11742,19 @@
                   <c:v>5.6992289999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>769.88390000000004</c:v>
+                  <c:v>4.8929150000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>769.88390000000004</c:v>
+                  <c:v>4.8929150000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>769.88390000000004</c:v>
+                  <c:v>4.8929150000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>769.88390000000004</c:v>
+                  <c:v>4.8929150000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>769.88390000000004</c:v>
+                  <c:v>4.8929150000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11886,7 +11896,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11998,7 +12007,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12185,10 +12193,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -12197,43 +12205,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4521</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4001</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12426,16 +12434,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -12453,10 +12461,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -12465,43 +12473,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -12513,19 +12521,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12667,7 +12675,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12774,7 +12781,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12958,40 +12964,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4521</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7001</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13184,16 +13190,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -13211,10 +13217,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -13223,43 +13229,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -13271,19 +13277,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13425,7 +13431,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13537,7 +13542,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13721,31 +13725,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5480</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8522</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7000</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13938,16 +13942,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -13965,10 +13969,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -13977,43 +13981,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -14025,19 +14029,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14179,7 +14183,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22359,546 +22362,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="0.1"/>
-      <sheetName val="0.15"/>
-      <sheetName val="0.5"/>
-      <sheetName val="Optimal"/>
-      <sheetName val="interdemand inter."/>
-      <sheetName val="Agregate-Disaggregate"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP008013</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Aggr. 2 level</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Aggr. 3 level</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Aggr. 4 level</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Aggr. 5 level</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Aggr. 6 level</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Aggr. 7 level</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Aggr. 8 level</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Aggr. 9 level</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="F7">
-            <v>0</v>
-          </cell>
-          <cell r="G7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="J10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>5</v>
-          </cell>
-          <cell r="C13">
-            <v>5</v>
-          </cell>
-          <cell r="D13">
-            <v>5</v>
-          </cell>
-          <cell r="E13">
-            <v>5</v>
-          </cell>
-          <cell r="G13">
-            <v>5</v>
-          </cell>
-          <cell r="I13">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>5480</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>5480</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>5480</v>
-          </cell>
-          <cell r="H16">
-            <v>5485</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>5480</v>
-          </cell>
-          <cell r="F17">
-            <v>5485</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>1520</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>3001</v>
-          </cell>
-          <cell r="C19">
-            <v>4521</v>
-          </cell>
-          <cell r="D19">
-            <v>4521</v>
-          </cell>
-          <cell r="G19">
-            <v>10001</v>
-          </cell>
-          <cell r="J19">
-            <v>10006</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>3000</v>
-          </cell>
-          <cell r="C21">
-            <v>4001</v>
-          </cell>
-          <cell r="E21">
-            <v>8522</v>
-          </cell>
-          <cell r="I21">
-            <v>14002</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>3000</v>
-          </cell>
-          <cell r="D22">
-            <v>7001</v>
-          </cell>
-          <cell r="F22">
-            <v>11522</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>2000</v>
-          </cell>
-          <cell r="C23">
-            <v>5000</v>
-          </cell>
-          <cell r="H23">
-            <v>13522</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>2000</v>
-          </cell>
-          <cell r="D25">
-            <v>4000</v>
-          </cell>
-          <cell r="E25">
-            <v>7000</v>
-          </cell>
-          <cell r="G25">
-            <v>11001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>1000</v>
-          </cell>
-          <cell r="C27">
-            <v>1000</v>
-          </cell>
-          <cell r="F27">
-            <v>5000</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>1000</v>
-          </cell>
-          <cell r="D28">
-            <v>2000</v>
-          </cell>
-          <cell r="J28">
-            <v>13001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>1000</v>
-          </cell>
-          <cell r="C29">
-            <v>2000</v>
-          </cell>
-          <cell r="E29">
-            <v>3000</v>
-          </cell>
-          <cell r="I29">
-            <v>10000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>5000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-          <cell r="D31">
-            <v>1000</v>
-          </cell>
-          <cell r="G31">
-            <v>3000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>1</v>
-          </cell>
-          <cell r="C33">
-            <v>1</v>
-          </cell>
-          <cell r="E33">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>1000</v>
-          </cell>
-          <cell r="D34">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>3000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>0</v>
-          </cell>
-          <cell r="C37">
-            <v>3000</v>
-          </cell>
-          <cell r="D37">
-            <v>3000</v>
-          </cell>
-          <cell r="E37">
-            <v>4000</v>
-          </cell>
-          <cell r="F37">
-            <v>4001</v>
-          </cell>
-          <cell r="G37">
-            <v>4001</v>
-          </cell>
-          <cell r="H37">
-            <v>4001</v>
-          </cell>
-          <cell r="I37">
-            <v>4001</v>
-          </cell>
-          <cell r="J37">
-            <v>5001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -23196,10 +22659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23429,20 +22892,20 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="R8" s="8" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="R8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -23611,20 +23074,20 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="R13" s="7" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="R13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -23746,7 +23209,7 @@
         <v>8.7760049941203763E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -23786,7 +23249,7 @@
       </c>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -23798,7 +23261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -23809,7 +23272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -23840,8 +23303,14 @@
       <c r="V20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -23875,8 +23344,17 @@
       <c r="V21">
         <v>6.0359389999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0.50951480000000005</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0.57174619999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -23913,8 +23391,17 @@
       <c r="V22" s="2">
         <v>0.19759379999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>7.2592721999999998</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>7.2730819999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -23951,8 +23438,17 @@
       <c r="V23" s="2">
         <v>7.2139457</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>12.720349499999999</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>12.8036941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -23993,21 +23489,32 @@
       <c r="V24" s="2">
         <v>12.4767045</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>Y23-Y22</f>
+        <v>5.4610772999999995</v>
+      </c>
+      <c r="Z24" s="2">
+        <f>Z23-Z22</f>
+        <v>5.5306120999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="R25" t="s">
         <v>45</v>
       </c>
@@ -24027,8 +23534,13 @@
         <f>V24-V23</f>
         <v>5.2627588000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -24051,15 +23563,23 @@
         <f>(L23-O23)/O23</f>
         <v>7.6038007964576604E-2</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="X26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4">
+        <f>(Y23-Z23)/Z23</f>
+        <v>-6.5094182467230468E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -24101,8 +23621,16 @@
         <f>(S24-O6)/O6</f>
         <v>4.8581131913367742E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>(Z23-Y23)/Y23</f>
+        <v>6.5520684003218792E-3</v>
+      </c>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -24144,8 +23672,13 @@
         <f>($S$24-V6)/V6</f>
         <v>4.3487003498140581E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -24187,21 +23720,29 @@
         <f>($T$24-O6)/O6</f>
         <v>3.7282501160192265E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="4">
+        <f>(Y22-Z22)/Z22</f>
+        <v>-1.8987548882302939E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
       <c r="R30" s="3" t="s">
         <v>59</v>
       </c>
@@ -24221,8 +23762,16 @@
         <f t="shared" si="7"/>
         <v>3.2243262799936709E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y30" s="4">
+        <f>(Z22-Y22)/Y22</f>
+        <v>1.9023670169028462E-3</v>
+      </c>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -24265,7 +23814,7 @@
         <v>3.0458660687641862E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -24401,13 +23950,13 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -24590,7 +24139,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="X28:Z28"/>
     <mergeCell ref="R35:V35"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="K13:O13"/>
@@ -25870,13 +25421,13 @@
       <c r="F38">
         <v>4.9088450000000003</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -25999,13 +25550,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="3" t="s">
@@ -27349,13 +26900,13 @@
       <c r="F38">
         <v>4.1230000000000002</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -27478,13 +27029,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="3" t="s">
@@ -28824,13 +28375,13 @@
       <c r="F38">
         <v>1.4352229999999999</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -28953,13 +28504,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="3" t="s">
@@ -30325,11 +29876,11 @@
       <c r="F39">
         <v>5.5977540000000001</v>
       </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C40">
@@ -30389,26 +29940,26 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K43" s="9">
+      <c r="K43" s="12">
         <v>0.1</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9">
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12">
         <v>0.15</v>
       </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9">
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12">
         <v>0.5</v>
       </c>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9" t="s">
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
@@ -30470,11 +30021,11 @@
       <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
     </row>
     <row r="49" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L49" s="3"/>
@@ -30568,26 +30119,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
+      <c r="B1" s="12">
         <v>0.1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12">
         <v>0.15</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12">
         <v>0.5</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -32010,8 +31561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32071,7 +31622,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="U4" s="11"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -32086,7 +31637,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="U5" s="11"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -32101,7 +31652,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="U6" s="11"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -32116,7 +31667,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="U7" s="11"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -32131,7 +31682,7 @@
       <c r="D8">
         <v>5.852176</v>
       </c>
-      <c r="U8" s="11"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -32146,7 +31697,7 @@
       <c r="D9">
         <v>5.852176</v>
       </c>
-      <c r="U9" s="11"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -32161,7 +31712,7 @@
       <c r="D10">
         <v>6.147691</v>
       </c>
-      <c r="U10" s="11"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -32176,7 +31727,7 @@
       <c r="D11">
         <v>6.1698870000000001</v>
       </c>
-      <c r="U11" s="11"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -32191,7 +31742,7 @@
       <c r="D12">
         <v>6.1698870000000001</v>
       </c>
-      <c r="U12" s="11"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -32206,7 +31757,7 @@
       <c r="D13">
         <v>6.1698870000000001</v>
       </c>
-      <c r="U13" s="11"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -32221,7 +31772,7 @@
       <c r="D14">
         <v>5.6762990000000002</v>
       </c>
-      <c r="U14" s="11"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -32236,7 +31787,7 @@
       <c r="D15">
         <v>5.6762990000000002</v>
       </c>
-      <c r="U15" s="11"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -32251,7 +31802,7 @@
       <c r="D16">
         <v>5.6762990000000002</v>
       </c>
-      <c r="U16" s="11"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -32266,7 +31817,7 @@
       <c r="D17">
         <v>5.6269609999999997</v>
       </c>
-      <c r="U17" s="11"/>
+      <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -32281,7 +31832,7 @@
       <c r="D18">
         <v>5.2961749999999999</v>
       </c>
-      <c r="U18" s="11"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -32296,7 +31847,7 @@
       <c r="D19">
         <v>5.3348389999999997</v>
       </c>
-      <c r="U19" s="11"/>
+      <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -32311,7 +31862,7 @@
       <c r="D20">
         <v>5.2795180000000004</v>
       </c>
-      <c r="U20" s="11"/>
+      <c r="U20" s="8"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -32326,7 +31877,7 @@
       <c r="D21">
         <v>5.2196829999999999</v>
       </c>
-      <c r="U21" s="11"/>
+      <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -32341,7 +31892,7 @@
       <c r="D22">
         <v>6.2039920000000004</v>
       </c>
-      <c r="U22" s="11"/>
+      <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -32362,7 +31913,7 @@
       <c r="J23" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="11"/>
+      <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -32381,12 +31932,12 @@
         <v>42</v>
       </c>
       <c r="I24" s="2">
-        <v>340.88409999999999</v>
+        <v>0.50951480000000005</v>
       </c>
       <c r="J24" s="2">
-        <v>376.36380000000003</v>
-      </c>
-      <c r="U24" s="11"/>
+        <v>0.57174619999999998</v>
+      </c>
+      <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -32405,12 +31956,12 @@
         <v>43</v>
       </c>
       <c r="I25" s="2">
-        <v>752.57989999999995</v>
+        <v>7.2592721999999998</v>
       </c>
       <c r="J25" s="2">
-        <v>740.6961</v>
-      </c>
-      <c r="U25" s="11"/>
+        <v>7.2730819999999996</v>
+      </c>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -32429,12 +31980,12 @@
         <v>44</v>
       </c>
       <c r="I26" s="2">
-        <v>1330.5878</v>
+        <v>12.720349499999999</v>
       </c>
       <c r="J26" s="2">
-        <v>1347.1755000000001</v>
-      </c>
-      <c r="U26" s="11"/>
+        <v>12.8036941</v>
+      </c>
+      <c r="U26" s="8"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -32454,13 +32005,13 @@
       </c>
       <c r="I27" s="2">
         <f>I26-I25</f>
-        <v>578.00790000000006</v>
+        <v>5.4610772999999995</v>
       </c>
       <c r="J27" s="2">
         <f>J26-J25</f>
-        <v>606.47940000000006</v>
-      </c>
-      <c r="U27" s="11"/>
+        <v>5.5306120999999999</v>
+      </c>
+      <c r="U27" s="8"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -32475,12 +32026,12 @@
       <c r="D28">
         <v>6.3916950000000003</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="U28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="U28" s="8"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -32501,9 +32052,9 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4">
         <f>(I26-J26)/J26</f>
-        <v>-1.2312946605694685E-2</v>
-      </c>
-      <c r="U29" s="11"/>
+        <v>-6.5094182467230468E-3</v>
+      </c>
+      <c r="U29" s="8"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -32523,10 +32074,10 @@
       </c>
       <c r="I30" s="4">
         <f>(J26-I26)/I26</f>
-        <v>1.2466445280799991E-2</v>
+        <v>6.5520684003218792E-3</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="U30" s="11"/>
+      <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -32541,12 +32092,12 @@
       <c r="D31">
         <v>5.9229510000000003</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="U31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="U31" s="8"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -32567,9 +32118,9 @@
       <c r="I32" s="3"/>
       <c r="J32" s="4">
         <f>(I25-J25)/J25</f>
-        <v>1.6044096897499461E-2</v>
-      </c>
-      <c r="U32" s="11"/>
+        <v>-1.8987548882302939E-3</v>
+      </c>
+      <c r="U32" s="8"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -32589,10 +32140,10 @@
       </c>
       <c r="I33" s="4">
         <f>(J25-I25)/I25</f>
-        <v>-1.5790748596926321E-2</v>
+        <v>1.9023670169028462E-3</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="U33" s="11"/>
+      <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -32607,7 +32158,7 @@
       <c r="D34">
         <v>5.8846999999999996</v>
       </c>
-      <c r="U34" s="11"/>
+      <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -32622,7 +32173,7 @@
       <c r="D35">
         <v>5.8846999999999996</v>
       </c>
-      <c r="U35" s="11"/>
+      <c r="U35" s="8"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -32637,7 +32188,7 @@
       <c r="D36">
         <v>5.8846999999999996</v>
       </c>
-      <c r="U36" s="11"/>
+      <c r="U36" s="8"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -32655,51 +32206,51 @@
       <c r="H37" s="3"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="U37" s="11"/>
+      <c r="U37" s="8"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C38">
-        <v>775.0394</v>
+        <v>4.9694890000000003</v>
       </c>
       <c r="D38">
-        <v>769.88390000000004</v>
+        <v>4.8929150000000003</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="U38" s="11"/>
+      <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C39">
-        <v>775.0394</v>
+        <v>4.9694890000000003</v>
       </c>
       <c r="D39">
-        <v>769.88390000000004</v>
-      </c>
-      <c r="U39" s="11"/>
+        <v>4.8929150000000003</v>
+      </c>
+      <c r="U39" s="8"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C40">
-        <v>775.0394</v>
+        <v>4.9694890000000003</v>
       </c>
       <c r="D40">
-        <v>769.88390000000004</v>
+        <v>4.8929150000000003</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C41">
-        <v>775.0394</v>
+        <v>4.9694890000000003</v>
       </c>
       <c r="D41">
-        <v>769.88390000000004</v>
+        <v>4.8929150000000003</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C42">
-        <v>775.0394</v>
+        <v>4.9694890000000003</v>
       </c>
       <c r="D42">
-        <v>769.88390000000004</v>
+        <v>4.8929150000000003</v>
       </c>
     </row>
   </sheetData>
@@ -32736,15 +32287,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+      <selection activeCell="B64" sqref="B64:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="10" width="8.28515625" style="10" customWidth="1"/>
+    <col min="3" max="10" width="8.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -32754,28 +32305,28 @@
       <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -32818,11 +32369,12 @@
         <v>102</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4"/>
       <c r="D4">
-        <v>0</v>
+        <f>SUM(B2:B4)</f>
+        <v>2</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -32839,11 +32391,12 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0</v>
+        <f>SUM(B2:B5)</f>
+        <v>2</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -32856,7 +32409,7 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -32872,20 +32425,23 @@
         <v>99</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>SUM(B5:B7)</f>
+        <v>62</v>
       </c>
       <c r="E7"/>
       <c r="F7">
-        <v>0</v>
+        <f>SUM(B2:B7)</f>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>SUM(B2:B7)</f>
+        <v>64</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -32919,12 +32475,14 @@
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0</v>
+        <f>SUM(B6:B9)</f>
+        <v>62</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9">
-        <v>0</v>
+        <f>SUM(B2:B9)</f>
+        <v>64</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -32938,6 +32496,7 @@
       </c>
       <c r="C10"/>
       <c r="D10">
+        <f>SUM(B8:B10)</f>
         <v>0</v>
       </c>
       <c r="E10"/>
@@ -32946,7 +32505,8 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10">
-        <v>0</v>
+        <f>SUM(B2:B10)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -32978,6 +32538,7 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12">
+        <f>SUM(B8:B12)</f>
         <v>0</v>
       </c>
       <c r="G12"/>
@@ -32990,24 +32551,28 @@
         <v>93</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <f>SUM(B11:B13)</f>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <f>SUM(B10:B13)</f>
+        <v>10</v>
       </c>
       <c r="F13"/>
       <c r="G13">
-        <v>5</v>
+        <f>SUM(B8:B13)</f>
+        <v>10</v>
       </c>
       <c r="H13"/>
       <c r="I13">
-        <v>5</v>
+        <f>SUM(B6:B13)</f>
+        <v>72</v>
       </c>
       <c r="J13"/>
     </row>
@@ -33016,7 +32581,7 @@
         <v>92</v>
       </c>
       <c r="B14">
-        <v>5480</v>
+        <v>0</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -33035,7 +32600,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5480</v>
+        <v>0</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -33054,13 +32619,15 @@
       </c>
       <c r="C16"/>
       <c r="D16">
-        <v>5480</v>
+        <f>SUM(B14:B16)</f>
+        <v>0</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16">
-        <v>5485</v>
+        <f>SUM(B10:B16)</f>
+        <v>10</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -33070,17 +32637,19 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>5480</v>
+        <f>SUM(B14:B17)</f>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>5485</v>
+        <f>SUM(B13:B17)</f>
+        <v>16</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -33092,7 +32661,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>1520</v>
+        <v>11</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -33108,23 +32677,26 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>4521</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>4521</v>
+        <f>SUM(B17:B19)</f>
+        <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19">
-        <v>10001</v>
+        <f>SUM(B14:B19)</f>
+        <v>17</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19">
-        <v>10006</v>
+        <f>SUM(B11:B19)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -33132,7 +32704,7 @@
         <v>86</v>
       </c>
       <c r="B20">
-        <v>1001</v>
+        <v>2</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -33148,20 +32720,22 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>3000</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>4001</v>
+        <v>54</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>8522</v>
+        <f>SUM(B18:B21)</f>
+        <v>65</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21">
-        <v>14002</v>
+        <f>SUM(B14:B21)</f>
+        <v>71</v>
       </c>
       <c r="J21"/>
     </row>
@@ -33170,15 +32744,17 @@
         <v>84</v>
       </c>
       <c r="B22">
-        <v>3000</v>
+        <v>18</v>
       </c>
       <c r="C22"/>
       <c r="D22">
-        <v>7001</v>
+        <f>SUM(B20:B22)</f>
+        <v>72</v>
       </c>
       <c r="E22"/>
       <c r="F22">
-        <v>11522</v>
+        <f>SUM(B18:B22)</f>
+        <v>83</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -33190,17 +32766,19 @@
         <v>83</v>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>5000</v>
+        <f>SUM(B22:B23)</f>
+        <v>24</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23">
-        <v>13522</v>
+        <f>SUM(B17:B23)</f>
+        <v>95</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -33210,7 +32788,7 @@
         <v>82</v>
       </c>
       <c r="B24">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -33226,20 +32804,24 @@
         <v>81</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2000</v>
+        <f>SUM(B24:B25)</f>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>4000</v>
+        <f>SUM(B23:B25)</f>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>7000</v>
+        <f>SUM(B22:B25)</f>
+        <v>28</v>
       </c>
       <c r="F25"/>
       <c r="G25">
-        <v>11001</v>
+        <f>SUM(B20:B25)</f>
+        <v>82</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -33266,15 +32848,17 @@
         <v>79</v>
       </c>
       <c r="B27">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <f>SUM(B26:B27)</f>
+        <v>4</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27">
-        <v>5000</v>
+        <f>SUM(B23:B27)</f>
+        <v>14</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -33286,11 +32870,12 @@
         <v>78</v>
       </c>
       <c r="B28">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C28"/>
       <c r="D28">
-        <v>2000</v>
+        <f>SUM(B26:B28)</f>
+        <v>14</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -33298,7 +32883,8 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28">
-        <v>13001</v>
+        <f>SUM(B20:B28)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -33306,20 +32892,23 @@
         <v>77</v>
       </c>
       <c r="B29">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2000</v>
+        <f>SUM(B28:B29)</f>
+        <v>10</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>3000</v>
+        <f>SUM(B26:B29)</f>
+        <v>14</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29">
-        <v>10000</v>
+        <f>SUM(B22:B29)</f>
+        <v>42</v>
       </c>
       <c r="J29"/>
     </row>
@@ -33336,7 +32925,8 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30">
-        <v>5000</v>
+        <f>SUM(B24:B30)</f>
+        <v>18</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -33349,15 +32939,18 @@
         <v>0</v>
       </c>
       <c r="C31">
+        <f>SUM(B30:B31)</f>
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <f>SUM(B29:B31)</f>
+        <v>0</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31">
-        <v>3000</v>
+        <f>SUM(B26:B31)</f>
+        <v>14</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -33374,7 +32967,8 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32">
-        <v>2000</v>
+        <f>SUM(B28:B32)</f>
+        <v>10</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -33386,14 +32980,16 @@
         <v>72</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <f>SUM(B32:B33)</f>
+        <v>0</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>1</v>
+        <f>SUM(B30:B33)</f>
+        <v>0</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -33406,11 +33002,12 @@
         <v>70</v>
       </c>
       <c r="B34">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C34"/>
       <c r="D34">
-        <v>1001</v>
+        <f>SUM(B32:B34)</f>
+        <v>0</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -33427,7 +33024,8 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <f>SUM(B34:B35)</f>
+        <v>0</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -33442,7 +33040,7 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>3000</v>
+        <v>11</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -33458,34 +33056,200 @@
         <v>67</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>3000</v>
+        <f>SUM(B36:B37)</f>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>3000</v>
+        <f>SUM(B35:B37)</f>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>4000</v>
+        <f>SUM(B34:B37)</f>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>4001</v>
+        <f>SUM(B33:B37)</f>
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>4001</v>
+        <f>SUM(B32:B37)</f>
+        <v>14</v>
       </c>
       <c r="H37">
-        <v>4001</v>
+        <f>SUM(B31:B37)</f>
+        <v>14</v>
       </c>
       <c r="I37">
-        <v>4001</v>
+        <f>SUM(B30:B37)</f>
+        <v>14</v>
       </c>
       <c r="J37">
-        <v>5001</v>
+        <f>SUM(B29:B37)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="7">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7">
+        <v>4</v>
+      </c>
+      <c r="F65" s="7">
+        <v>5</v>
+      </c>
+      <c r="G65" s="7">
+        <v>6</v>
+      </c>
+      <c r="H65" s="7">
+        <v>7</v>
+      </c>
+      <c r="I65" s="7">
+        <v>8</v>
+      </c>
+      <c r="J65" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="7">
+        <v>18</v>
+      </c>
+      <c r="D66" s="7">
+        <v>12</v>
+      </c>
+      <c r="E66" s="7">
+        <v>9</v>
+      </c>
+      <c r="F66" s="7">
+        <v>7</v>
+      </c>
+      <c r="G66" s="7">
+        <v>6</v>
+      </c>
+      <c r="H66" s="7">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1.6363639999999999</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1.125</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1.1666666999999999</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9">
+        <v>1</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1.2735179999999999</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1.100482</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0.98099409999999998</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0.89097789999999999</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.86745380000000005</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0.87572090000000002</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.3077027</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.54609209999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B64:J64"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/bip5887_data.xlsx
+++ b/bip5887_data.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="115">
   <si>
     <t>X</t>
   </si>
@@ -210,30 +210,6 @@
     <t>err_SES</t>
   </si>
   <si>
-    <t>SES (0.1)</t>
-  </si>
-  <si>
-    <t>SES (0.15)</t>
-  </si>
-  <si>
-    <t>Croston (0.1)</t>
-  </si>
-  <si>
-    <t>Croston (0.15)</t>
-  </si>
-  <si>
-    <t>SBA (0.1)</t>
-  </si>
-  <si>
-    <t>SBA (0.15)</t>
-  </si>
-  <si>
-    <t>SBJ (0.1)</t>
-  </si>
-  <si>
-    <t>SBJ (0.15)</t>
-  </si>
-  <si>
     <t>opt</t>
   </si>
   <si>
@@ -398,11 +374,26 @@
   <si>
     <t>Model</t>
   </si>
+  <si>
+    <t>SBA-SBJ (0.1)</t>
+  </si>
+  <si>
+    <t>SBA-SBJ (0.15)</t>
+  </si>
+  <si>
+    <t>SBJ (0.5)</t>
+  </si>
+  <si>
+    <t>SES (0.0615)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,6 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22659,19 +22651,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21:AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22679,7 +22677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -22692,8 +22690,20 @@
       <c r="T2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22724,8 +22734,26 @@
       <c r="V3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.50951480000000005</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.57174619999999998</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1.899132</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.50951480000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22762,8 +22790,26 @@
       <c r="V4" s="2">
         <v>0.18294279999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>7.2592721999999998</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>7.2730819999999996</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>6.6526339999999999</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>7.2592721999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22800,8 +22846,26 @@
       <c r="V5" s="2">
         <v>7.0258620000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>12.720349499999999</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>12.8036941</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>12.722334</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>12.720349499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22838,8 +22902,30 @@
       <c r="V6" s="2">
         <v>12.192134599999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>Y5-Y4</f>
+        <v>5.4610772999999995</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>Z5-Z4</f>
+        <v>5.5306120999999999</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="2">
+        <f>AC5-AC4</f>
+        <v>6.0697000000000001</v>
+      </c>
+      <c r="AD6" s="2">
+        <f>AD5-AD4</f>
+        <v>5.4610772999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -22884,8 +22970,18 @@
         <f>V6-V5</f>
         <v>5.1662725999999992</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AB7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -22906,8 +23002,24 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4">
+        <f>(Z5-Y5)/Y5</f>
+        <v>6.5520684003218792E-3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4">
+        <f>(AD5-AC5)/AC5</f>
+        <v>-1.5598552907043013E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -22919,35 +23031,45 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
-        <f>(L6-M6)/M6</f>
-        <v>4.9505524644509614E-2</v>
+        <f>(M6-L6)/L6</f>
+        <v>-4.7170332582363694E-2</v>
       </c>
       <c r="N9" s="4">
-        <f>(L6-N6)/N6</f>
-        <v>5.2008403152738213E-2</v>
+        <f>(N6-L6)/L6</f>
+        <v>-4.9437250688184144E-2</v>
       </c>
       <c r="O9" s="4">
-        <f>(L6-O6)/O6</f>
-        <v>5.2047161208020123E-2</v>
+        <f>(O6-L6)/L6</f>
+        <v>-4.9472269996201149E-2</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4">
-        <f>(S6-T6)/T6</f>
-        <v>5.2064722006189321E-2</v>
+        <f>(T6-S6)/S6</f>
+        <v>-4.9488135964588523E-2</v>
       </c>
       <c r="U9" s="4">
-        <f>(S6-U6)/U6</f>
-        <v>5.5407038830640312E-2</v>
+        <f>(U6-S6)/S6</f>
+        <v>-5.2498265401024487E-2</v>
       </c>
       <c r="V9" s="4">
-        <f>(S6-V6)/V6</f>
-        <v>5.5632210622084212E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V6-S6)/S6</f>
+        <v>-5.2700372404608745E-2</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AB9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -22957,37 +23079,47 @@
       <c r="K10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="4">
-        <f>($M$6-L6)/L6</f>
-        <v>-4.7170332582363694E-2</v>
-      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
-        <f>($M$6-N6)/N6</f>
-        <v>2.3848168965822009E-3</v>
+        <f>(N6-M6)/M6</f>
+        <v>-2.3791430759752289E-3</v>
       </c>
       <c r="O10" s="4">
-        <f>($M$6-O6)/O6</f>
-        <v>2.4217467215062204E-3</v>
+        <f>(O6-M6)/M6</f>
+        <v>-2.4158960332082984E-3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="4">
-        <f>($T$6-S6)/S6</f>
-        <v>-4.9488135964588523E-2</v>
-      </c>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4">
-        <f>($T$6-U6)/U6</f>
-        <v>3.1769117950058269E-3</v>
+        <f>(U6-T6)/T6</f>
+        <v>-3.166850988746652E-3</v>
       </c>
       <c r="V10" s="4">
-        <f>($T$6-V6)/V6</f>
-        <v>3.390940254219362E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V6-T6)/T6</f>
+        <v>-3.3794806372880273E-3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="4">
+        <f>(Z4-Y4)/Y4</f>
+        <v>1.9023670169028462E-3</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4">
+        <f>(AD4-AC4)/AC4</f>
+        <v>9.1187670928537468E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -22997,99 +23129,90 @@
       <c r="K11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="4">
-        <f>($N$6-L6)/L6</f>
-        <v>-4.9437250688184144E-2</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" ref="M11" si="2">($N$6-M6)/M6</f>
-        <v>-2.3791430759752289E-3</v>
-      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4">
-        <f>($N$6-O6)/O6</f>
-        <v>3.6841963586754592E-5</v>
+        <f>(O6-N6)/N6</f>
+        <v>-3.684060630647854E-5</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="4">
-        <f>($U$6-S6)/S6</f>
-        <v>-5.2498265401024487E-2</v>
-      </c>
-      <c r="T11" s="4">
-        <f>($U$6-T6)/T6</f>
-        <v>-3.166850988746652E-3</v>
-      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4">
-        <f>($U$6-V6)/V6</f>
-        <v>2.1335066297585483E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V6-U6)/U6</f>
+        <v>-2.133051541797944E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="4">
-        <f>($O$6-L6)/L6</f>
-        <v>-4.9472269996201149E-2</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" ref="M12:N12" si="3">($O$6-M6)/M6</f>
-        <v>-2.4158960332082984E-3</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="3"/>
-        <v>-3.684060630647854E-5</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="R12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="4">
-        <f>($V$6-S6)/S6</f>
-        <v>-5.2700372404608745E-2</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" ref="T12:U12" si="4">($V$6-T6)/T6</f>
-        <v>-3.3794806372880273E-3</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="4"/>
-        <v>-2.133051541797944E-4</v>
-      </c>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="R12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="R13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4">
+        <f>(M5-L5)/L5</f>
+        <v>-1.0240894027203903E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <f>(N5-L5)/L5</f>
+        <v>-1.8618852939247126E-2</v>
+      </c>
+      <c r="O13" s="4">
+        <f>(O5-L5)/L5</f>
+        <v>-1.872747930212253E-2</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="4">
+        <f>(T5-S5)/S5</f>
+        <v>-4.9254094173894432E-2</v>
+      </c>
+      <c r="U13" s="4">
+        <f>(U5-S5)/S5</f>
+        <v>-5.5024081873936752E-2</v>
+      </c>
+      <c r="V13" s="4">
+        <f>(V5-S5)/S5</f>
+        <v>-5.5852666045733558E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -23097,39 +23220,33 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4">
-        <f>(L5-M5)/M5</f>
-        <v>1.0346855073526728E-2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="4">
-        <f>(L5-N5)/N5</f>
-        <v>1.8972091521230861E-2</v>
+        <f>(N5-M5)/M5</f>
+        <v>-8.4646444387180969E-3</v>
       </c>
       <c r="O14" s="4">
-        <f>(L5-O5)/O5</f>
-        <v>1.9084891207188408E-2</v>
+        <f>(O5-M5)/M5</f>
+        <v>-8.5743947428273352E-3</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="4">
-        <f>(S5-T5)/T5</f>
-        <v>5.1805738917274038E-2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="4">
-        <f>(S5-U5)/U5</f>
-        <v>5.8228025517361739E-2</v>
+        <f>(U5-T5)/T5</f>
+        <v>-6.0689061763865883E-3</v>
       </c>
       <c r="V14" s="4">
-        <f>(S5-V5)/V5</f>
-        <v>5.9156726961047588E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V5-T5)/T5</f>
+        <v>-6.9404157634584875E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -23137,119 +23254,53 @@
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="4">
-        <f>(M5-L5)/L5</f>
-        <v>-1.0240894027203903E-2</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4">
-        <f>(M5-N5)/N5</f>
-        <v>8.5369063152836207E-3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="4">
-        <f>(M5-O5)/O5</f>
-        <v>8.6485508316109742E-3</v>
+        <f>(O5-N5)/N5</f>
+        <v>-1.1068723217349208E-4</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="4">
-        <f>(T5-S5)/S5</f>
-        <v>-4.9254094173894432E-2</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="4">
-        <f>(T5-U5)/U5</f>
-        <v>6.1059626910752417E-3</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="4">
-        <f>(T5-V5)/V5</f>
-        <v>6.988921786394358E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V5-U5)/U5</f>
+        <v>-8.7683099209547467E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="4">
-        <f>(N5-L5)/L5</f>
-        <v>-1.8618852939247126E-2</v>
-      </c>
-      <c r="M16" s="4">
-        <f>(N5-M5)/M5</f>
-        <v>-8.4646444387180969E-3</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4">
-        <f>(N5-O5)/O5</f>
-        <v>1.1069948519311113E-4</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="4">
-        <f>(U5-S5)/S5</f>
-        <v>-5.5024081873936752E-2</v>
-      </c>
-      <c r="T16" s="4">
-        <f>(U5-T5)/T5</f>
-        <v>-6.0689061763865883E-3</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="4">
-        <f>(U5-V5)/V5</f>
-        <v>8.7760049941203763E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="4">
-        <f>(O5-L5)/L5</f>
-        <v>-1.872747930212253E-2</v>
-      </c>
-      <c r="M17" s="4">
-        <f>(O5-M5)/M5</f>
-        <v>-8.5743947428273352E-3</v>
-      </c>
-      <c r="N17" s="4">
-        <f>(O5-N5)/N5</f>
-        <v>-1.1068723217349208E-4</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="R17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S17" s="4">
-        <f>(V5-S5)/S5</f>
-        <v>-5.5852666045733558E-2</v>
-      </c>
-      <c r="T17" s="4">
-        <f>(V5-T5)/T5</f>
-        <v>-6.9404157634584875E-3</v>
-      </c>
-      <c r="U17" s="4">
-        <f>(V5-U5)/U5</f>
-        <v>-8.7683099209547467E-4</v>
-      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -23261,7 +23312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -23272,7 +23323,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -23303,14 +23354,8 @@
       <c r="V20" t="s">
         <v>41</v>
       </c>
-      <c r="Y20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -23335,26 +23380,29 @@
       <c r="S21">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="14">
         <v>7.4337139999999996E-2</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="14">
         <v>6.6835560000000002E-2</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="14">
         <v>6.0359389999999999E-2</v>
       </c>
-      <c r="X21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0.50951480000000005</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0.57174619999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -23392,16 +23440,22 @@
         <v>0.19759379999999999</v>
       </c>
       <c r="X22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y22" s="2">
-        <v>7.2592721999999998</v>
+        <v>0.15382409999999999</v>
       </c>
       <c r="Z22" s="2">
-        <v>7.2730819999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.18294279999999999</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1.691346</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1.899132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -23439,16 +23493,22 @@
         <v>7.2139457</v>
       </c>
       <c r="X23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y23" s="2">
-        <v>12.720349499999999</v>
+        <v>7.0009359</v>
       </c>
       <c r="Z23" s="2">
-        <v>12.8036941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>7.0258620000000001</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>6.6992900000000004</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>6.6526339999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -23463,15 +23523,15 @@
         <v>5.7785639999999994</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" ref="M24:O24" si="5">M23-M22</f>
+        <f t="shared" ref="M24:O24" si="2">M23-M22</f>
         <v>5.5942271999999997</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.9712200000000006</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.1365460000000001</v>
       </c>
       <c r="R24" t="s">
@@ -23490,18 +23550,22 @@
         <v>12.4767045</v>
       </c>
       <c r="X24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y24" s="2">
-        <f>Y23-Y22</f>
-        <v>5.4610772999999995</v>
+        <v>12.132903799999999</v>
       </c>
       <c r="Z24" s="2">
-        <f>Z23-Z22</f>
-        <v>5.5306120999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>12.192134599999999</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>12.835836</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>12.722334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -23534,13 +23598,27 @@
         <f>V24-V23</f>
         <v>5.2627588000000003</v>
       </c>
-      <c r="X25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>Y24-Y23</f>
+        <v>5.1319678999999994</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>Z24-Z23</f>
+        <v>5.1662725999999992</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" ref="AA25" si="3">AA24-AA23</f>
+        <v>6.1365460000000001</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>AB24-AB23</f>
+        <v>6.0697000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -23552,16 +23630,16 @@
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
-        <f>(L23-M23)/M23</f>
-        <v>4.1980344602519516E-2</v>
+        <f>(M23-L23)/L23</f>
+        <v>-4.02889985593093E-2</v>
       </c>
       <c r="N26" s="4">
-        <f>(L23-N23)/N23</f>
-        <v>7.0662439782324046E-2</v>
+        <f>(N23-L23)/L23</f>
+        <v>-6.5998803317215832E-2</v>
       </c>
       <c r="O26" s="4">
-        <f>(L23-O23)/O23</f>
-        <v>7.6038007964576604E-2</v>
+        <f>(O23-L23)/L23</f>
+        <v>-7.0664797527374881E-2</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>46</v>
@@ -23570,16 +23648,15 @@
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="X26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4">
-        <f>(Y23-Z23)/Z23</f>
-        <v>-6.5094182467230468E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -23589,48 +23666,50 @@
       <c r="K27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="4">
-        <f>($M$23-L23)/L23</f>
-        <v>-4.02889985593093E-2</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
-        <f>($M$23-N23)/N23</f>
-        <v>2.7526522288427415E-2</v>
+        <f>(N23-M23)/M23</f>
+        <v>-2.6789111221306949E-2</v>
       </c>
       <c r="O27" s="4">
-        <f>($M$23-O23)/O23</f>
-        <v>3.268551421192973E-2</v>
+        <f>(O23-M23)/M23</f>
+        <v>-3.1650985476321829E-2</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" s="4">
-        <f>(S24-L6)/L6</f>
-        <v>-3.294556957572599E-3</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="S27" s="4"/>
       <c r="T27" s="4">
-        <f>(S24-M6)/M6</f>
-        <v>4.6047868916281168E-2</v>
+        <f>(T24-S24)/S24</f>
+        <v>-1.0775161224347638E-2</v>
       </c>
       <c r="U27" s="4">
-        <f>(S24-N6)/N6</f>
-        <v>4.854250154870652E-2</v>
+        <f>(U24-S24)/S24</f>
+        <v>-1.7282850772507633E-2</v>
       </c>
       <c r="V27" s="4">
-        <f>(S24-O6)/O6</f>
+        <f>(V24-S24)/S24</f>
+        <v>-1.9306952639350589E-2</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4">
+        <f>(Z24-Y24)/Y24</f>
+        <v>4.8818321628825512E-3</v>
+      </c>
+      <c r="AA27" s="4">
+        <f>(AA24-Y24)/Y24</f>
+        <v>5.7936023526371415E-2</v>
+      </c>
+      <c r="AB27" s="4">
+        <f>(AB24-Y24)/Y24</f>
         <v>4.8581131913367742E-2</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y27" s="4">
-        <f>(Z23-Y23)/Y23</f>
-        <v>6.5520684003218792E-3</v>
-      </c>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -23640,138 +23719,114 @@
       <c r="K28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="4">
-        <f>($N$23-L23)/L23</f>
-        <v>-6.5998803317215832E-2</v>
-      </c>
-      <c r="M28" s="4">
-        <f>($N$23-M23)/M23</f>
-        <v>-2.6789111221306949E-2</v>
-      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4">
-        <f t="shared" ref="O28" si="6">($N$23-O23)/O23</f>
-        <v>5.0207871150737843E-3</v>
+        <f>(O23-N23)/N23</f>
+        <v>-4.9957047450590788E-3</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S28" s="4">
-        <f>($S$24-S6)/S6</f>
-        <v>-1.1505150185580697E-2</v>
-      </c>
-      <c r="T28" s="4">
-        <f>($S$24-T6)/T6</f>
-        <v>3.9960559374556913E-2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="4">
-        <f>($S$24-U6)/U6</f>
-        <v>4.3264422341974799E-2</v>
+        <f>(U24-T24)/T24</f>
+        <v>-6.5785747517363791E-3</v>
       </c>
       <c r="V28" s="4">
-        <f>($S$24-V6)/V6</f>
+        <f>(V24-T24)/T24</f>
+        <v>-8.6247242088690491E-3</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4">
+        <f>(AA24-Z24)/Z24</f>
+        <v>5.2796447965723838E-2</v>
+      </c>
+      <c r="AB28" s="4">
+        <f>(AB24-Z24)/Z24</f>
         <v>4.3487003498140581E-2</v>
       </c>
-      <c r="X28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="4">
-        <f>($O$23-L23)/L23</f>
-        <v>-7.0664797527374881E-2</v>
-      </c>
-      <c r="M29" s="4">
-        <f>($O$23-M23)/M23</f>
-        <v>-3.1650985476321829E-2</v>
-      </c>
-      <c r="N29" s="4">
-        <f>($O$23-N23)/N23</f>
-        <v>-4.9957047450590788E-3</v>
-      </c>
-      <c r="O29" s="4"/>
+      <c r="K29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
       <c r="R29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S29" s="4">
-        <f>($T$24-L6)/L6</f>
-        <v>-1.4034218799539595E-2</v>
-      </c>
-      <c r="T29" s="4">
-        <f>($T$24-M6)/M6</f>
-        <v>3.4776534480322974E-2</v>
-      </c>
-      <c r="U29" s="4">
-        <f>($T$24-N6)/N6</f>
-        <v>3.7244287043938423E-2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
       <c r="V29" s="4">
-        <f>($T$24-O6)/O6</f>
-        <v>3.7282501160192265E-2</v>
+        <f>(V24-U24)/U24</f>
+        <v>-2.0596993432281992E-3</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="4">
-        <f>(Y22-Z22)/Z22</f>
-        <v>-1.8987548882302939E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4">
+        <f>(AB24-AA24)/AA24</f>
+        <v>-8.8425872689554801E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4">
+        <f>(M22-L22)/L22</f>
+        <v>-4.6323362624054842E-2</v>
+      </c>
+      <c r="N30" s="4">
+        <f>(N22-L22)/L22</f>
+        <v>-0.13745580045140696</v>
+      </c>
+      <c r="O30" s="4">
+        <f>(O22-L22)/L22</f>
+        <v>-0.16605830188936191</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="R30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S30" s="4">
-        <f>($T$24-S6)/S6</f>
-        <v>-2.2156341561768367E-2</v>
-      </c>
-      <c r="T30" s="4">
-        <f>($T$24-T6)/T6</f>
-        <v>2.8754816680333306E-2</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" ref="U30:V30" si="7">($T$24-U6)/U6</f>
-        <v>3.2023079991614113E-2</v>
-      </c>
-      <c r="V30" s="4">
-        <f t="shared" si="7"/>
-        <v>3.2243262799936709E-2</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y30" s="4">
-        <f>(Z22-Y22)/Y22</f>
-        <v>1.9023670169028462E-3</v>
-      </c>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="X30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -23779,42 +23834,52 @@
         <v>0</v>
       </c>
       <c r="K31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4">
+        <f>(N22-M22)/M22</f>
+        <v>-9.5559054563928852E-2</v>
+      </c>
+      <c r="O31" s="4">
+        <f>(O22-M22)/M22</f>
+        <v>-0.12555087812023943</v>
+      </c>
+      <c r="R31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4">
-        <f>(L22-M22)/M22</f>
-        <v>4.8573448073043111E-2</v>
-      </c>
-      <c r="N31" s="4">
-        <f>(L22-N22)/N22</f>
-        <v>0.15936087741746288</v>
-      </c>
-      <c r="O31" s="4">
-        <f>(L22-O22)/O22</f>
-        <v>0.19912459380023848</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S31" s="4">
-        <f>($U$24-L6)/L6</f>
-        <v>-2.0520468393820979E-2</v>
-      </c>
+      <c r="S31" s="3"/>
       <c r="T31" s="4">
-        <f>($U$24-M6)/M6</f>
-        <v>2.7969179696901453E-2</v>
+        <f>(T23-S23)/S23</f>
+        <v>8.5609699857229535E-2</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" ref="U31:V31" si="8">($U$24-N6)/N6</f>
-        <v>3.0420697965808367E-2</v>
+        <f>(U23-S23)/S23</f>
+        <v>8.5752876229174754E-2</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="8"/>
-        <v>3.0458660687641862E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <f>(V23-S23)/S23</f>
+        <v>8.4374354578953245E-2</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="4">
+        <f>(Z23-Y23)/Y23</f>
+        <v>3.5603954037059619E-3</v>
+      </c>
+      <c r="AA31" s="4">
+        <f>(AA23-Y23)/Y23</f>
+        <v>-4.3086510762082475E-2</v>
+      </c>
+      <c r="AB31" s="4">
+        <f>(AB23-Y23)/Y23</f>
+        <v>-4.9750762608753503E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -23822,334 +23887,186 @@
         <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4">
+        <f>(O22-N22)/N22</f>
+        <v>-3.3160621163441699E-2</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="4">
-        <f>(M22-L22)/L22</f>
-        <v>-4.6323362624054842E-2</v>
-      </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="4">
-        <f>(M22-N22)/N22</f>
-        <v>0.10565538308071135</v>
-      </c>
-      <c r="O32" s="4">
-        <f>(M22-O22)/O22</f>
-        <v>0.14357711041020757</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S32" s="4">
-        <f>($U$24-S6)/S6</f>
-        <v>-2.8589159164315651E-2</v>
-      </c>
-      <c r="T32" s="4">
-        <f>($U$24-T6)/T6</f>
-        <v>2.1987076217592879E-2</v>
-      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="3"/>
       <c r="U32" s="4">
-        <f>($U$24-U6)/U6</f>
-        <v>2.5233839014372067E-2</v>
+        <f>(U23-T23)/T23</f>
+        <v>1.3188567858601213E-4</v>
       </c>
       <c r="V32" s="4">
-        <f>($U$24-V6)/V6</f>
-        <v>2.5452573333631066E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V23-T23)/T23</f>
+        <v>-1.1379276349858898E-3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="4">
+        <f>(AA23-Z23)/Z23</f>
+        <v>-4.648141395319174E-2</v>
+      </c>
+      <c r="AB32" s="4">
+        <f>(AB23-Z23)/Z23</f>
+        <v>-5.3122022607332751E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="4">
-        <f>(N22-L22)/L22</f>
-        <v>-0.13745580045140696</v>
-      </c>
-      <c r="M33" s="4">
-        <f>(N22-M22)/M22</f>
-        <v>-9.5559054563928852E-2</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4">
-        <f>(N22-O22)/O22</f>
-        <v>3.429796291845847E-2</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S33" s="4">
-        <f>($V$24-L6)/L6</f>
-        <v>-2.2537901741775689E-2</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" ref="T33:V33" si="9">($V$24-M6)/M6</f>
-        <v>2.5851872252620915E-2</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="9"/>
-        <v>2.8298341130959449E-2</v>
-      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="3"/>
       <c r="V33" s="4">
-        <f t="shared" si="9"/>
-        <v>2.8336225660999716E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V23-U23)/U23</f>
+        <v>-1.269645865465371E-3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="4">
+        <f>(AB23-AA23)/AA23</f>
+        <v>-6.9643200995927138E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="4">
-        <f>(O22-L22)/L22</f>
-        <v>-0.16605830188936191</v>
-      </c>
-      <c r="M34" s="4">
-        <f>(O22-M22)/M22</f>
-        <v>-0.12555087812023943</v>
-      </c>
-      <c r="N34" s="4">
-        <f>(O22-N22)/N22</f>
-        <v>-3.3160621163441699E-2</v>
-      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
       <c r="O34" s="3"/>
-      <c r="R34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S34" s="4">
-        <f>($V$24-S6)/S6</f>
-        <v>-3.0589973435189662E-2</v>
-      </c>
-      <c r="T34" s="4">
-        <f t="shared" ref="T34:V34" si="10">($V$24-T6)/T6</f>
-        <v>1.9882090107919793E-2</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" si="10"/>
-        <v>2.3122165549498839E-2</v>
-      </c>
-      <c r="V34" s="4">
-        <f t="shared" si="10"/>
-        <v>2.3340449341824117E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R34" s="3"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="R36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S36" s="4">
-        <f>($S$23-L5)/L5</f>
-        <v>-6.7546535533855784E-2</v>
-      </c>
-      <c r="T36" s="4">
-        <f t="shared" ref="T36:V36" si="11">($S$23-M5)/M5</f>
-        <v>-5.7898574674216691E-2</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="11"/>
-        <v>-4.9855943066715314E-2</v>
-      </c>
-      <c r="V36" s="4">
-        <f t="shared" si="11"/>
-        <v>-4.9750762608753503E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="R37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" s="4">
-        <f>($S$23-S5)/S5</f>
-        <v>-0.10600768206470504</v>
-      </c>
-      <c r="T37" s="4">
-        <f>($S$23-T5)/T5</f>
-        <v>-5.9693749447700513E-2</v>
-      </c>
-      <c r="U37" s="4">
-        <f t="shared" ref="U37:V37" si="12">($S$23-U5)/U5</f>
-        <v>-5.3952274563643321E-2</v>
-      </c>
-      <c r="V37" s="4">
-        <f t="shared" si="12"/>
-        <v>-5.3122022607332751E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S38" s="4">
-        <f>($T$23-L5)/L5</f>
-        <v>1.2280525689924658E-2</v>
-      </c>
-      <c r="T38" s="4">
-        <f>($T$23-M5)/M5</f>
-        <v>2.2754445582991757E-2</v>
-      </c>
-      <c r="U38" s="4">
-        <f>($T$23-N5)/N5</f>
-        <v>3.1485604468473601E-2</v>
-      </c>
-      <c r="V38" s="4">
-        <f t="shared" ref="V38" si="13">($T$23-O5)/O5</f>
-        <v>3.1599789393872361E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S39" s="4">
-        <f>($T$23-S5)/S5</f>
-        <v>-2.9473268051595527E-2</v>
-      </c>
-      <c r="T39" s="4">
-        <f t="shared" ref="T39:V39" si="14">($T$23-T5)/T5</f>
-        <v>2.0805586435958718E-2</v>
-      </c>
-      <c r="U39" s="4">
-        <f t="shared" si="14"/>
-        <v>2.7038587261577863E-2</v>
-      </c>
-      <c r="V39" s="4">
-        <f t="shared" si="14"/>
-        <v>2.7939916838674059E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S40" s="4">
-        <f>($U$23-L5)/L5</f>
-        <v>1.2414030993974678E-2</v>
-      </c>
-      <c r="T40" s="4">
-        <f>($U$23-M5)/M5</f>
-        <v>2.2889332247074332E-2</v>
-      </c>
-      <c r="U40" s="4">
-        <f t="shared" ref="U40:V40" si="15">($U$23-N5)/N5</f>
-        <v>3.1621642647370628E-2</v>
-      </c>
-      <c r="V40" s="4">
-        <f t="shared" si="15"/>
-        <v>3.1735842632125762E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S41" s="4">
-        <f>($U$23-S5)/S5</f>
-        <v>-2.934526947496665E-2</v>
-      </c>
-      <c r="T41" s="4">
-        <f t="shared" ref="T41:V41" si="16">($U$23-T5)/T5</f>
-        <v>2.0940216073430218E-2</v>
-      </c>
-      <c r="U41" s="4">
-        <f t="shared" si="16"/>
-        <v>2.7174038942592876E-2</v>
-      </c>
-      <c r="V41" s="4">
-        <f t="shared" si="16"/>
-        <v>2.8075487392151977E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S42" s="4">
-        <f>($V$23-L5)/L5</f>
-        <v>1.1128623705384049E-2</v>
-      </c>
-      <c r="T42" s="4">
-        <f t="shared" ref="T42:V42" si="17">($V$23-M5)/M5</f>
-        <v>2.1590625035558197E-2</v>
-      </c>
-      <c r="U42" s="4">
-        <f t="shared" si="17"/>
-        <v>3.0311848494058796E-2</v>
-      </c>
-      <c r="V42" s="4">
-        <f t="shared" si="17"/>
-        <v>3.0425903485275452E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S43" s="4">
-        <f>($V$23-S5)/S5</f>
-        <v>-3.0577657240372161E-2</v>
-      </c>
-      <c r="T43" s="4">
-        <f t="shared" ref="T43:V43" si="18">($V$23-T5)/T5</f>
-        <v>1.9643983549205261E-2</v>
-      </c>
-      <c r="U43" s="4">
-        <f t="shared" si="18"/>
-        <v>2.5869891670936049E-2</v>
-      </c>
-      <c r="V43" s="4">
-        <f t="shared" si="18"/>
-        <v>2.6770195600198235E-2</v>
-      </c>
+      <c r="R37" s="3"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R38" s="3"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R39" s="3"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R40" s="3"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R41" s="3"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R42" s="3"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R43" s="3"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="X28:Z28"/>
+  <mergeCells count="15">
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="R35:V35"/>
     <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K12:O12"/>
     <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="R12:V12"/>
     <mergeCell ref="K25:O25"/>
-    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K29:O29"/>
     <mergeCell ref="R26:V26"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AB9:AD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29956,14 +29873,14 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L44" t="s">
         <v>40</v>
@@ -29972,7 +29889,7 @@
         <v>41</v>
       </c>
       <c r="N44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O44" t="s">
         <v>40</v>
@@ -29981,7 +29898,7 @@
         <v>41</v>
       </c>
       <c r="Q44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
         <v>40</v>
@@ -29990,7 +29907,7 @@
         <v>41</v>
       </c>
       <c r="T44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
         <v>40</v>
@@ -30135,14 +30052,14 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -30151,7 +30068,7 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -30160,7 +30077,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
@@ -30169,7 +30086,7 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>40</v>
@@ -31575,15 +31492,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -31597,7 +31514,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -31611,7 +31528,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -31626,7 +31543,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -31641,7 +31558,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -31656,7 +31573,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -31671,7 +31588,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -31686,7 +31603,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -31701,7 +31618,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -31716,7 +31633,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -31731,7 +31648,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -31746,7 +31663,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -31761,7 +31678,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -31776,7 +31693,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -31791,7 +31708,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -31806,7 +31723,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -31821,7 +31738,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -31836,7 +31753,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -31851,7 +31768,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -31866,7 +31783,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>52</v>
@@ -31881,7 +31798,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -31896,7 +31813,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -31908,16 +31825,16 @@
         <v>6.997306</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -31941,7 +31858,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -31965,7 +31882,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -31989,7 +31906,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -32015,7 +31932,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -32035,7 +31952,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -32047,7 +31964,7 @@
         <v>6.3611769999999996</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4">
@@ -32058,7 +31975,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -32070,7 +31987,7 @@
         <v>5.9639629999999997</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I30" s="4">
         <f>(J26-I26)/I26</f>
@@ -32081,7 +31998,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -32101,7 +32018,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -32113,7 +32030,7 @@
         <v>5.9229510000000003</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="4">
@@ -32124,7 +32041,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -32136,7 +32053,7 @@
         <v>5.8846999999999996</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I33" s="4">
         <f>(J25-I25)/I25</f>
@@ -32147,7 +32064,7 @@
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -32162,7 +32079,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -32177,7 +32094,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -32192,7 +32109,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -32303,36 +32220,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -32348,7 +32265,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -32366,7 +32283,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -32385,7 +32302,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -32406,7 +32323,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -32422,7 +32339,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -32449,7 +32366,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -32465,7 +32382,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -32489,7 +32406,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -32511,7 +32428,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -32529,7 +32446,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -32548,7 +32465,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -32578,7 +32495,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -32594,7 +32511,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -32612,7 +32529,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -32634,7 +32551,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -32658,7 +32575,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -32674,7 +32591,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -32701,7 +32618,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -32717,7 +32634,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>52</v>
@@ -32741,7 +32658,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -32763,7 +32680,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -32785,7 +32702,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -32801,7 +32718,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -32829,7 +32746,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -32845,7 +32762,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -32867,7 +32784,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -32889,7 +32806,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -32914,7 +32831,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -32933,7 +32850,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -32958,7 +32875,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -32977,7 +32894,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -32999,7 +32916,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -33018,7 +32935,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -33037,7 +32954,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -33053,7 +32970,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -33093,7 +33010,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -33132,7 +33049,7 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C66" s="7">
         <v>18</v>
@@ -33161,7 +33078,7 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C67" s="9">
         <v>1.6363639999999999</v>
@@ -33190,7 +33107,7 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C68" s="9">
         <v>1.2735179999999999</v>
@@ -33219,7 +33136,7 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>40</v>

--- a/bip5887_data.xlsx
+++ b/bip5887_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -460,6 +460,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -472,7 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4690,6 +4690,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6278,6 +6279,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6366,6 +6368,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Croston's and Exponential Smoothing forecasts of item BIP005887, α = 0.15</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6439,6 +6472,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0.15'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>17-Dec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18-Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18-May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18-Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18-Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-Aug</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18-Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18-Dec</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19-Jan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19-Feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19-Mar</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19-Apr</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19-May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19-Jun</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19-Jul</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19-Aug</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19-Sep</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19-Oct</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19-Nov</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19-Dec</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20-Jan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20-Feb</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20-Mar</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20-Apr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20-May</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20-Jun</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20-Jul</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20-Aug</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20-Sep</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20-Oct</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'0.15'!$A$2:$A$42</c:f>
@@ -6601,6 +6750,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0.15'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>17-Dec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18-Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18-May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18-Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18-Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-Aug</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18-Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18-Dec</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19-Jan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19-Feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19-Mar</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19-Apr</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19-May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19-Jun</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19-Jul</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19-Aug</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19-Sep</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19-Oct</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19-Nov</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19-Dec</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20-Jan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20-Feb</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20-Mar</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20-Apr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20-May</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20-Jun</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20-Jul</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20-Aug</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20-Sep</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20-Oct</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'0.15'!$B$2:$B$42</c:f>
@@ -6763,6 +7028,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0.15'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>17-Dec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18-Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18-May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18-Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18-Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-Aug</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18-Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18-Dec</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19-Jan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19-Feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19-Mar</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19-Apr</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19-May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19-Jun</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19-Jul</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19-Aug</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19-Sep</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19-Oct</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19-Nov</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19-Dec</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20-Jan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20-Feb</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20-Mar</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20-Apr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20-May</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20-Jun</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20-Jul</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20-Aug</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20-Sep</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20-Oct</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'0.15'!$C$2:$C$42</c:f>
@@ -6940,6 +7321,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0.15'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>17-Dec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18-Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18-May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18-Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18-Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-Aug</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18-Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18-Dec</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19-Jan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19-Feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19-Mar</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19-Apr</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19-May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19-Jun</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19-Jul</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19-Aug</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19-Sep</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19-Oct</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19-Nov</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19-Dec</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20-Jan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20-Feb</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20-Mar</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20-Apr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20-May</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20-Jun</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20-Jul</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20-Aug</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20-Sep</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20-Oct</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'0.15'!$D$2:$D$42</c:f>
@@ -7108,6 +7605,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0.15'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>17-Dec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18-Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18-May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18-Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18-Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-Aug</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18-Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18-Dec</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19-Jan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19-Feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19-Mar</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19-Apr</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19-May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19-Jun</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19-Jul</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19-Aug</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19-Sep</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19-Oct</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19-Nov</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19-Dec</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20-Jan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20-Feb</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20-Mar</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20-Apr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20-May</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20-Jun</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20-Jul</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20-Aug</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20-Sep</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20-Oct</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'0.15'!$E$2:$E$42</c:f>
@@ -7276,6 +7889,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0.15'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>17-Dec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18-Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18-May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18-Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18-Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-Aug</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18-Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18-Dec</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19-Jan</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19-Feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19-Mar</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19-Apr</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19-May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19-Jun</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19-Jul</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19-Aug</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19-Sep</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19-Oct</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19-Nov</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19-Dec</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20-Jan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20-Feb</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20-Mar</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20-Apr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20-May</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20-Jun</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20-Jul</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20-Aug</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20-Sep</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20-Oct</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'0.15'!$F$2:$F$42</c:f>
@@ -7426,6 +8155,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7535,6 +8265,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7623,6 +8354,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Croston's and Exponential Smoothing forecasts of item BIP005887, α = 0.5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9211,6 +9973,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9299,6 +10062,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Croston's and Exponential Smoothing forecasts of item BIP005887, α = "optimal"</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10887,6 +11681,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10975,6 +11770,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11888,6 +12684,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21932,13 +22729,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>360045</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>527685</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -22653,8 +23450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21:AB33"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22970,16 +23767,16 @@
         <f>V6-V5</f>
         <v>5.1662725999999992</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AB7" s="10" t="s">
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AB7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -22988,20 +23785,20 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="R8" s="10" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="R8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
       <c r="X8" s="3" t="s">
         <v>65</v>
       </c>
@@ -23058,16 +23855,16 @@
         <f>(V6-S6)/S6</f>
         <v>-5.2700372404608745E-2</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AB9" s="11" t="s">
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AB9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -23154,20 +23951,20 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="R12" s="11" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="R12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="3"/>
@@ -23380,13 +24177,13 @@
       <c r="S21">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="10">
         <v>7.4337139999999996E-2</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="10">
         <v>6.6835560000000002E-2</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="10">
         <v>6.0359389999999999E-2</v>
       </c>
       <c r="Y21" t="s">
@@ -23572,13 +24369,13 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
       <c r="R25" t="s">
         <v>45</v>
       </c>
@@ -23641,20 +24438,20 @@
         <f>(O23-L23)/L23</f>
         <v>-7.0664797527374881E-2</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="X26" s="10" t="s">
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="X26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -23760,13 +24557,13 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
       <c r="R29" s="3" t="s">
         <v>40</v>
       </c>
@@ -23811,20 +24608,20 @@
         <f>(O22-L22)/L22</f>
         <v>-0.16605830188936191</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="X30" s="11" t="s">
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="X30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -23976,11 +24773,11 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -25338,13 +26135,13 @@
       <c r="F38">
         <v>4.9088450000000003</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -25467,13 +26264,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="3" t="s">
@@ -25561,8 +26358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:P47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26817,13 +27614,13 @@
       <c r="F38">
         <v>4.1230000000000002</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -26946,13 +27743,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="3" t="s">
@@ -27040,7 +27837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
@@ -28292,13 +29089,13 @@
       <c r="F38">
         <v>1.4352229999999999</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -28421,13 +29218,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="3" t="s">
@@ -28516,7 +29313,7 @@
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B37"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29793,11 +30590,11 @@
       <c r="F39">
         <v>5.5977540000000001</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C40">
@@ -29857,26 +30654,26 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K43" s="12">
+      <c r="K43" s="13">
         <v>0.1</v>
       </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12">
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13">
         <v>0.15</v>
       </c>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13">
         <v>0.5</v>
       </c>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12" t="s">
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
@@ -29938,11 +30735,11 @@
       <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
     </row>
     <row r="49" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L49" s="3"/>
@@ -30036,26 +30833,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="12">
+      <c r="B1" s="13">
         <v>0.1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13">
         <v>0.15</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13">
         <v>0.5</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -31478,8 +32275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31943,11 +32740,11 @@
       <c r="D28">
         <v>6.3916950000000003</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
       <c r="U28" s="8"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -32009,11 +32806,11 @@
       <c r="D31">
         <v>5.9229510000000003</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="U31" s="8"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -33009,17 +33806,17 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C65" s="7">

--- a/bip5887_data.xlsx
+++ b/bip5887_data.xlsx
@@ -506,7 +506,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5162,7 +5161,7 @@
             <c:numRef>
               <c:f>'0.1'!$C$2:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5455,7 +5454,7 @@
             <c:numRef>
               <c:f>'0.1'!$D$2:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>5.3073741064902578</c:v>
@@ -5739,7 +5738,7 @@
             <c:numRef>
               <c:f>'0.1'!$E$2:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>5.3790333434146422</c:v>
@@ -6023,7 +6022,7 @@
             <c:numRef>
               <c:f>'0.1'!$F$2:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>5.3826309192012474</c:v>
@@ -7148,7 +7147,7 @@
             <c:numRef>
               <c:f>'0.15'!$C$2:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7441,7 +7440,7 @@
             <c:numRef>
               <c:f>'0.15'!$D$2:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>4.8942440594470114</c:v>
@@ -7725,7 +7724,7 @@
             <c:numRef>
               <c:f>'0.15'!$E$2:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>5.1464625281898337</c:v>
@@ -8009,7 +8008,7 @@
             <c:numRef>
               <c:f>'0.15'!$F$2:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>5.1559946109209687</c:v>
@@ -8856,9 +8855,9 @@
             <c:numRef>
               <c:f>'0.5'!$C$2:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -9149,7 +9148,7 @@
             <c:numRef>
               <c:f>'0.5'!$D$2:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>3.4673832482421782E-5</c:v>
@@ -9433,7 +9432,7 @@
             <c:numRef>
               <c:f>'0.5'!$E$2:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>1.5681488620568459E-4</c:v>
@@ -9717,7 +9716,7 @@
             <c:numRef>
               <c:f>'0.5'!$F$2:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>1.3939100996060861E-4</c:v>
@@ -10286,7 +10285,7 @@
             <c:numRef>
               <c:f>Opt.!$B$2:$B$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -10564,7 +10563,7 @@
             <c:numRef>
               <c:f>Opt.!$C$2:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -10857,7 +10856,7 @@
             <c:numRef>
               <c:f>Opt.!$D$2:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>1.7486934390646469</c:v>
@@ -11141,7 +11140,7 @@
             <c:numRef>
               <c:f>Opt.!$E$2:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>2.4117076579132268</c:v>
@@ -11425,7 +11424,7 @@
             <c:numRef>
               <c:f>Opt.!$F$2:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>2.6457967397043669</c:v>
@@ -11636,7 +11635,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12256,115 +12255,115 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>1.0783389999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>1.0783389999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>6.1666910000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>6.1666910000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>6.1666910000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>6.1666910000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>6.1666910000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>6.1666910000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>5.1895519999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>5.1895519999999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>5.1895519999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>5.1895519999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>4.4738360000000004</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>4.4738360000000004</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>4.5093719999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>4.5093719999999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>7.6817570000000002</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>7.6817570000000002</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>8.1427560000000003</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>8.1427560000000003</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>7.0483010000000004</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>7.0483010000000004</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>6.1401979999999998</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>6.1401979999999998</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>5.84375</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>4.9694890000000003</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>4.9694890000000003</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>4.9694890000000003</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>4.9694890000000003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>4.9694890000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -12433,115 +12432,115 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>5.852176</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>5.852176</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>6.147691</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>6.1698870000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>6.1698870000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>6.1698870000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>5.6762990000000002</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>5.6762990000000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>5.6762990000000002</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>5.6269609999999997</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>5.2961749999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>5.3348389999999997</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>5.2795180000000004</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>5.2196829999999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>6.2039920000000004</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>6.997306</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>7.0972309999999998</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>7.0252790000000003</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>6.5723950000000002</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>6.5723950000000002</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>6.3916950000000003</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>6.3611769999999996</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>5.9639629999999997</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>5.9229510000000003</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>5.9229510000000003</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>5.8846999999999996</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>5.8846999999999996</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>5.8846999999999996</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>5.8846999999999996</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>5.6992289999999999</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>4.8929150000000003</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>4.8929150000000003</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>4.8929150000000003</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>4.8929150000000003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>4.8929150000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -24875,7 +24874,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C2" sqref="C2:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24928,9 +24927,12 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -24951,9 +24953,12 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -24974,9 +24979,12 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4">
         <v>0</v>
       </c>
@@ -24997,16 +25005,16 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>5.3073741064902578</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.3790333434146422</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5.3826309192012474</v>
       </c>
       <c r="G5">
@@ -25029,16 +25037,16 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>5.3073741064902578</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>5.3790333434146422</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>5.3826309192012474</v>
       </c>
       <c r="G6">
@@ -25061,16 +25069,16 @@
       <c r="B7">
         <v>52</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.1619999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>5.2972558401750414</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>5.3607218200774787</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>5.3637747139656771</v>
       </c>
       <c r="G7">
@@ -25093,16 +25101,16 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6.2458</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>6.1360165785574061</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>6.0616137169026834</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6.0645218126048821</v>
       </c>
       <c r="G8">
@@ -25125,16 +25133,16 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>5.6212200000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6.1360165785574061</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>6.0616137169026834</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>6.0645218126048821</v>
       </c>
       <c r="G9">
@@ -25157,16 +25165,16 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>5.0590980000000014</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6.1360165785574061</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>6.0616137169026834</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>6.0645218126048821</v>
       </c>
       <c r="G10">
@@ -25189,16 +25197,16 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>4.553188200000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>6.1360165785574061</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>6.0616137169026834</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>6.0645218126048821</v>
       </c>
       <c r="G11">
@@ -25221,16 +25229,16 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>4.0978693800000006</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>6.1360165785574061</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>6.0616137169026834</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>6.0645218126048821</v>
       </c>
       <c r="G12">
@@ -25253,16 +25261,16 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>3.688082442000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>6.1360165785574061</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>6.0616137169026834</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>6.0645218126048821</v>
       </c>
       <c r="G13">
@@ -25285,16 +25293,16 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>4.3192741978000013</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>5.6581184576317893</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>5.6320416104664979</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>5.6330913563831349</v>
       </c>
       <c r="G14">
@@ -25317,16 +25325,16 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>3.8873467780200008</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>5.6581184576317893</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>5.6320416104664979</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>5.6330913563831349</v>
       </c>
       <c r="G15">
@@ -25349,16 +25357,16 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>3.4986121002180011</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>5.6581184576317893</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>5.6320416104664979</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>5.6330913563831349</v>
       </c>
       <c r="G16">
@@ -25381,16 +25389,16 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>3.1487508901962009</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>5.6581184576317893</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>5.6320416104664979</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>5.6330913563831349</v>
       </c>
       <c r="G17">
@@ -25413,16 +25421,16 @@
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>3.4338758011765811</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>5.3529428850624203</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>5.3529438841633157</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>5.3529596889218212</v>
       </c>
       <c r="G18">
@@ -25445,16 +25453,16 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4.1904882210589234</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5.4657685057395211</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>5.4451725860703277</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>5.4448906621997306</v>
       </c>
       <c r="G19">
@@ -25477,16 +25485,16 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>3.7714393989530302</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>5.4657685057395211</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>5.4451725860703277</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>5.4448906621997306</v>
       </c>
       <c r="G20">
@@ -25509,16 +25517,16 @@
       <c r="B21">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>3.5942954590577272</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>5.2759219147797003</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>5.2714087043514626</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>5.2706234711538071</v>
       </c>
       <c r="G21">
@@ -25541,16 +25549,16 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>8.4348659131519543</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>6.3539675025467419</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>6.1991626265114244</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>6.1976650807466216</v>
       </c>
       <c r="G22">
@@ -25573,16 +25581,16 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>9.3913793218367587</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>6.6450650369781039</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>6.4479920356355391</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>6.446009737727425</v>
       </c>
       <c r="G23">
@@ -25605,16 +25613,16 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>9.0522413896530836</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>6.6276339508819868</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>6.429490034566582</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>6.4271245044517427</v>
       </c>
       <c r="G24">
@@ -25637,16 +25645,16 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>8.447017250687777</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>6.5218903097315541</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>6.3337430009431896</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>6.3310230282981843</v>
       </c>
       <c r="G25">
@@ -25669,16 +25677,16 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>7.7023155256190003</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>6.348656366815848</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>6.1783517861701513</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>6.1753093617476669</v>
       </c>
       <c r="G26">
@@ -25701,16 +25709,16 @@
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>6.9320839730570993</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>6.348656366815848</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>6.1783517861701513</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>6.1753093617476669</v>
       </c>
       <c r="G27">
@@ -25733,16 +25741,16 @@
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>6.6388755757513902</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>6.0652436816714967</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>5.9204779324111527</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>5.9167946093454704</v>
       </c>
       <c r="G28">
@@ -25765,16 +25773,16 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>6.9749880181762514</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G29">
@@ -25797,16 +25805,16 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>6.2774892163586262</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G30">
@@ -25829,16 +25837,16 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>5.649740294722764</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G31">
@@ -25861,16 +25869,16 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>5.0847662652504884</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G32">
@@ -25893,16 +25901,16 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>4.5762896387254388</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G33">
@@ -25937,16 +25945,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>4.1186606748528947</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G34">
@@ -25984,16 +25992,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>3.7067946073676059</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G35">
@@ -26031,16 +26039,16 @@
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>3.3361151466308452</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>6.2027311256979303</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>6.0364568152147342</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>6.0322593177567692</v>
       </c>
       <c r="G36">
@@ -26078,16 +26086,16 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>4.1025036319677604</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>5.0586214315586426</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>4.9787540537709774</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>4.9731254451664082</v>
       </c>
       <c r="G37">
@@ -26123,16 +26131,16 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>3.9922529999999998</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>4.9930209999999997</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>4.9146340000000004</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>4.9088450000000003</v>
       </c>
       <c r="L38" s="11" t="s">
@@ -26144,16 +26152,16 @@
       <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>3.9922529999999998</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>4.9930209999999997</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>4.9146340000000004</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>4.9088450000000003</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -26174,16 +26182,16 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>3.9922529999999998</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>4.9930209999999997</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>4.9146340000000004</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>4.9088450000000003</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -26204,16 +26212,16 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>3.9922529999999998</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>4.9930209999999997</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>4.9146340000000004</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>4.9088450000000003</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -26234,16 +26242,16 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>3.9922529999999998</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>4.9930209999999997</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>4.9146340000000004</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>4.9088450000000003</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -26358,8 +26366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26407,9 +26415,12 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -26430,9 +26441,12 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -26453,9 +26467,12 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4">
         <v>0</v>
       </c>
@@ -26476,16 +26493,16 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4.8942440594470114</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.1464625281898337</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5.1559946109209687</v>
       </c>
       <c r="G5">
@@ -26508,16 +26525,16 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.255</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4.8942440594470114</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>5.1464625281898337</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>5.1559946109209687</v>
       </c>
       <c r="G6">
@@ -26540,16 +26557,16 @@
       <c r="B7">
         <v>52</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.71675</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4.8987126212520868</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>5.1244288881145099</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>5.1322734763946087</v>
       </c>
       <c r="G7">
@@ -26572,16 +26589,16 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>9.2592374999999993</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>6.0410237856510376</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>6.1666825870232147</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6.1666677218674506</v>
       </c>
       <c r="G8">
@@ -26604,16 +26621,16 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>7.870351874999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6.0410237856510376</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>6.1666825870232147</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>6.1666677218674506</v>
       </c>
       <c r="G9">
@@ -26636,16 +26653,16 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6.6897990937499987</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6.0410237856510376</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>6.1666825870232147</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>6.1666677218674506</v>
       </c>
       <c r="G10">
@@ -26668,16 +26685,16 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>5.686329229687499</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>6.0410237856510376</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>6.1666825870232147</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>6.1666677218674506</v>
       </c>
       <c r="G11">
@@ -26700,16 +26717,16 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>4.8333798452343739</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>6.0410237856510376</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>6.1666825870232147</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>6.1666677218674506</v>
       </c>
       <c r="G12">
@@ -26732,16 +26749,16 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>4.1083728684492176</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>6.0410237856510376</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>6.1666825870232147</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>6.1666677218674506</v>
       </c>
       <c r="G13">
@@ -26764,16 +26781,16 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>4.9921169381818347</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>5.40162761129021</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>5.4906476304323117</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>5.4891536355419381</v>
       </c>
       <c r="G14">
@@ -26796,16 +26813,16 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>4.2432993974545594</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>5.40162761129021</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>5.4906476304323117</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>5.4891536355419381</v>
       </c>
       <c r="G15">
@@ -26828,16 +26845,16 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>3.6068044878363752</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>5.40162761129021</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>5.4906476304323117</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>5.4891536355419381</v>
       </c>
       <c r="G16">
@@ -26860,16 +26877,16 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>3.0657838146609189</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>5.40162761129021</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>5.4906476304323117</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>5.4891536355419381</v>
       </c>
       <c r="G17">
@@ -26892,16 +26909,16 @@
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>3.5059162424617809</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>5.0003399239190527</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>5.0686332285457114</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>5.0663548013247741</v>
       </c>
       <c r="G18">
@@ -26924,16 +26941,16 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4.630028806092513</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5.1765030285121343</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>5.2185673305684732</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>5.214391683581642</v>
       </c>
       <c r="G19">
@@ -26956,16 +26973,16 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>3.935524485178636</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>5.1765030285121343</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>5.2185673305684732</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>5.214391683581642</v>
       </c>
       <c r="G20">
@@ -26988,16 +27005,16 @@
       <c r="B21">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>3.6451958124018402</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>4.9066054827365964</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>4.9411046913473093</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>4.9368059572001304</v>
       </c>
       <c r="G21">
@@ -27020,16 +27037,16 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>10.89841644054156</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>6.6312287102875329</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>6.521641636345727</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>6.5059198049515636</v>
       </c>
       <c r="G22">
@@ -27052,16 +27069,16 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>11.96365397446033</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>7.1008087029099149</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>6.9399872376291674</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>6.92039356582137</v>
       </c>
       <c r="G23">
@@ -27084,16 +27101,16 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>11.06910587829128</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>7.0497955846733174</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>6.8755731413838008</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>6.8551966409897016</v>
       </c>
       <c r="G24">
@@ -27116,16 +27133,16 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>9.8587399965475857</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>6.8404182734165868</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>6.663570553409599</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>6.6433043742062416</v>
       </c>
       <c r="G25">
@@ -27148,16 +27165,16 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>8.5299289970654488</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>6.5055468756693724</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>6.3345387269079474</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>6.3150859213908408</v>
       </c>
       <c r="G26">
@@ -27180,16 +27197,16 @@
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>7.2504396475056314</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>6.5055468756693724</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>6.3345387269079474</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>6.3150859213908408</v>
       </c>
       <c r="G27">
@@ -27212,16 +27229,16 @@
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>6.7628737003797861</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>5.9699585021403081</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>5.8014475718881533</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>5.7828614910931053</v>
       </c>
       <c r="G28">
@@ -27244,16 +27261,16 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>7.2484426453228181</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G29">
@@ -27276,16 +27293,16 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>6.161176248524395</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G30">
@@ -27308,16 +27325,16 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>5.2369998112457354</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G31">
@@ -27340,16 +27357,16 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>4.4514498395588751</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G32">
@@ -27372,16 +27389,16 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>3.7837323636250439</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G33">
@@ -27416,16 +27433,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>3.2161725090812872</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G34">
@@ -27463,16 +27480,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>2.733746632719094</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G35">
@@ -27510,16 +27527,16 @@
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>2.3236846378112301</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>6.2333433238355704</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>6.0268289986069963</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>6.0054832801958424</v>
       </c>
       <c r="G36">
@@ -27557,16 +27574,16 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>3.6251319421395451</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>4.3830585571354543</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>4.2159195630217274</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>4.1995189728968692</v>
       </c>
       <c r="G37">
@@ -27602,16 +27619,16 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>3.5313620000000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>4.3097060000000003</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>4.1394979999999997</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>4.1230000000000002</v>
       </c>
       <c r="L38" s="11" t="s">
@@ -27623,16 +27640,16 @@
       <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>3.5313620000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>4.3097060000000003</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>4.1394979999999997</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>4.1230000000000002</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -27653,16 +27670,16 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>3.5313620000000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>4.3097060000000003</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>4.1394979999999997</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>4.1230000000000002</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -27683,16 +27700,16 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>3.5313620000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>4.3097060000000003</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>4.1394979999999997</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>4.1230000000000002</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -27713,16 +27730,16 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>3.5313620000000001</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>4.3097060000000003</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>4.1394979999999997</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>4.1230000000000002</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -27837,8 +27854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27905,9 +27922,12 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -27928,9 +27948,12 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4">
         <v>0</v>
       </c>
@@ -27951,16 +27974,16 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3.4673832482421782E-5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1.5681488620568459E-4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.3939100996060861E-4</v>
       </c>
       <c r="G5">
@@ -27983,16 +28006,16 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>3.4673832482421782E-5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1.5681488620568459E-4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>1.3939100996060861E-4</v>
       </c>
       <c r="G6">
@@ -28015,16 +28038,16 @@
       <c r="B7">
         <v>52</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5.25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1.000027871198983</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.75012559874049023</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.66677830999154697</v>
       </c>
       <c r="G7">
@@ -28047,16 +28070,16 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>28.625</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>9.5000241619471719</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>7.1251057057137617</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6.3334272939677883</v>
       </c>
       <c r="G8">
@@ -28079,16 +28102,16 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>14.3125</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>9.5000241619471719</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>7.1251057057137617</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>6.3334272939677883</v>
       </c>
       <c r="G9">
@@ -28111,16 +28134,16 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>7.15625</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>9.5000241619471719</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>7.1251057057137617</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>6.3334272939677883</v>
       </c>
       <c r="G10">
@@ -28143,16 +28166,16 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>3.578125</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>9.5000241619471719</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>7.1251057057137617</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>6.3334272939677883</v>
       </c>
       <c r="G11">
@@ -28175,16 +28198,16 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1.7890625</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>9.5000241619471719</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>7.1251057057137617</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>6.3334272939677883</v>
       </c>
       <c r="G12">
@@ -28207,16 +28230,16 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.89453125</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>9.5000241619471719</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>7.1251057057137617</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>6.3334272939677883</v>
       </c>
       <c r="G13">
@@ -28239,16 +28262,16 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>5.447265625</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>4.2777856400838568</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>3.2083683555621949</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>2.8518829827219512</v>
       </c>
       <c r="G14">
@@ -28271,16 +28294,16 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>2.7236328125</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>4.2777856400838568</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>3.2083683555621949</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>2.8518829827219512</v>
       </c>
       <c r="G15">
@@ -28303,16 +28326,16 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1.36181640625</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>4.2777856400838568</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>3.2083683555621949</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>2.8518829827219512</v>
       </c>
       <c r="G16">
@@ -28335,16 +28358,16 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>0.680908203125</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>4.2777856400838568</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>3.2083683555621949</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>2.8518829827219512</v>
       </c>
       <c r="G17">
@@ -28367,16 +28390,16 @@
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>3.3404541015625</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>2.9705923722907861</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>2.2279596894229479</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>1.9804086128203979</v>
       </c>
       <c r="G18">
@@ -28399,16 +28422,16 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>7.17022705078125</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>4.5000033730552831</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>3.3750150134107821</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>3.000013345254029</v>
       </c>
       <c r="G19">
@@ -28431,16 +28454,16 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>3.585113525390625</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>4.5000033730552831</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>3.3750150134107821</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>3.000013345254029</v>
       </c>
       <c r="G20">
@@ -28463,16 +28486,16 @@
       <c r="B21">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>2.7925567626953129</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>2.9864883874106591</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>2.2398733709735499</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>1.9909985519764899</v>
       </c>
       <c r="G21">
@@ -28495,16 +28518,16 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>27.39627838134766</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>17.783020287207599</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>13.33727019165547</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>11.855351281471529</v>
       </c>
       <c r="G22">
@@ -28527,16 +28550,16 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>22.698139190673832</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>17.864706767635141</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>13.39853317867912</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>11.909807269937</v>
       </c>
       <c r="G23">
@@ -28559,16 +28582,16 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>14.349069595336911</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>12.76845686956724</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>9.576344418234374</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>8.512306149541665</v>
       </c>
       <c r="G24">
@@ -28591,16 +28614,16 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>8.674534797668457</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>8.2545128955754716</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>6.1908856197107536</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>5.5030094397428924</v>
       </c>
       <c r="G25">
@@ -28623,16 +28646,16 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>4.8372673988342294</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>4.7701689885992611</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>3.577627233359844</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>3.1801130963198609</v>
       </c>
       <c r="G26">
@@ -28655,16 +28678,16 @@
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>2.4186336994171138</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>4.7701689885992611</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>3.577627233359844</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>3.1801130963198609</v>
       </c>
       <c r="G27">
@@ -28687,16 +28710,16 @@
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>3.2093168497085571</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>2.9482980541564419</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>2.211223708870905</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>1.9655321856630259</v>
       </c>
       <c r="G28">
@@ -28719,16 +28742,16 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>6.6046584248542786</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G29">
@@ -28751,16 +28774,16 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>3.3023292124271388</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G30">
@@ -28783,16 +28806,16 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>1.6511646062135701</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G31">
@@ -28815,16 +28838,16 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.82558230310678482</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G32">
@@ -28847,16 +28870,16 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.41279115155339241</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G33">
@@ -28891,16 +28914,16 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.20639557577669621</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G34">
@@ -28938,16 +28961,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.1031977878883481</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G35">
@@ -28985,16 +29008,16 @@
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>5.1598893944174051E-2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>5.7460286986616689</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>4.3095216256253499</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>3.830685889444756</v>
       </c>
       <c r="G36">
@@ -29032,16 +29055,16 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>5.525799446972087</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>1.9698655454784271</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>1.4773991729160469</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>1.3132437092587079</v>
       </c>
       <c r="G37">
@@ -29077,16 +29100,16 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>4.2629000000000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>2.1528339999999999</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1.614625</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>1.4352229999999999</v>
       </c>
       <c r="L38" s="11" t="s">
@@ -29098,16 +29121,16 @@
       <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>4.2629000000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>2.1528339999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>1.614625</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>1.4352229999999999</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -29128,16 +29151,16 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>4.2629000000000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>2.1528339999999999</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>1.614625</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>1.4352229999999999</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -29158,16 +29181,16 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>4.2629000000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>2.1528339999999999</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>1.614625</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>1.4352229999999999</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -29188,16 +29211,16 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>4.2629000000000001</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>2.1528339999999999</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>1.614625</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>1.4352229999999999</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -29312,11 +29335,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -29354,12 +29382,15 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -29377,12 +29408,15 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -29400,12 +29434,15 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4">
         <v>0</v>
       </c>
@@ -29423,19 +29460,19 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.12296490988614681</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1.7486934390646469</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.4117076579132268</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>2.6457967397043669</v>
       </c>
       <c r="G5">
@@ -29455,19 +29492,19 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.1154047253544927</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1.7486934390646469</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2.4117076579132268</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2.6457967397043669</v>
       </c>
       <c r="G6">
@@ -29487,19 +29524,19 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>52</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.72313390895840146</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2.2670265825556322</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2.8009654597841389</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>2.9916634021726218</v>
       </c>
       <c r="G7">
@@ -29519,19 +29556,19 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>3.8757615180228751</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>5.8181815013320826</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>5.8181829412644213</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>5.8181818602198341</v>
       </c>
       <c r="G8">
@@ -29551,19 +29588,19 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>3.6374701851209359</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>5.8181815013320826</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>5.8181829412644213</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>5.8181818602198341</v>
       </c>
       <c r="G9">
@@ -29583,19 +29620,19 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>3.4138295883574652</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>5.8181815013320826</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5.8181829412644213</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>5.8181818602198341</v>
       </c>
       <c r="G10">
@@ -29615,19 +29652,19 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>3.2039389645079468</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>5.8181815013320826</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>5.8181829412644213</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>5.8181818602198341</v>
       </c>
       <c r="G11">
@@ -29647,19 +29684,19 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>3.0069529314822301</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>5.8181815013320826</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>5.8181829412644213</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>5.8181818602198341</v>
       </c>
       <c r="G12">
@@ -29679,19 +29716,19 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>2.822078083356431</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>5.8181815013320826</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>5.8181829412644213</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>5.8181818602198341</v>
       </c>
       <c r="G13">
@@ -29711,19 +29748,19 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>3.2633943441813691</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>5.0842589437707293</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>5.2777292797224273</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>5.2857047909160864</v>
       </c>
       <c r="G14">
@@ -29743,19 +29780,19 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>3.0627528484537572</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>5.0842589437707293</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>5.2777292797224273</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>5.2857047909160864</v>
       </c>
       <c r="G15">
@@ -29775,19 +29812,19 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>2.87444728444693</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>5.0842589437707293</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>5.2777292797224273</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>5.2857047909160864</v>
       </c>
       <c r="G16">
@@ -29807,19 +29844,19 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>2.6977192087946822</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>5.0842589437707293</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>5.2777292797224273</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>5.2857047909160864</v>
       </c>
       <c r="G17">
@@ -29839,19 +29876,19 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>2.900751538749339</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>4.6353096263584623</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>4.8975760114134426</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>4.9189735974117426</v>
       </c>
       <c r="G18">
@@ -29871,19 +29908,19 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>3.3987132173409398</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>4.9457345297004798</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>5.1603971292890174</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>5.1726264350026909</v>
       </c>
       <c r="G19">
@@ -29903,19 +29940,19 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>3.1897519850913469</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>4.9457345297004798</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>5.1603971292890174</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>5.1726264350026909</v>
       </c>
       <c r="G20">
@@ -29935,19 +29972,19 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>3.1166031122745368</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>4.5952439271002419</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>4.8349094276150746</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>4.8689968785263469</v>
       </c>
       <c r="G21">
@@ -29967,19 +30004,19 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>6.1220743588884918</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>7.1456639132196829</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>7.1499883632326648</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>7.0448719878610211</v>
       </c>
       <c r="G22">
@@ -29999,19 +30036,19 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>6.8523583869353066</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>7.683723269288671</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>7.6306652836532001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>7.5113716015734351</v>
       </c>
       <c r="G23">
@@ -30031,19 +30068,19 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>6.799953300815206</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>7.5250757462367428</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>7.4782617529234816</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>7.3864800401358108</v>
       </c>
       <c r="G24">
@@ -30063,19 +30100,19 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>6.5663228432120526</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>7.2083338760378624</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>7.1823847850985336</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>7.1256990992564768</v>
       </c>
       <c r="G25">
@@ -30095,19 +30132,19 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>6.2240916498056684</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>6.7974332172201963</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>6.8010934178726394</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>6.7829033795934048</v>
       </c>
       <c r="G26">
@@ -30127,19 +30164,19 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>5.8414192153849314</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>6.7974332172201963</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>6.8010934178726394</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>6.7829033795934048</v>
       </c>
       <c r="G27">
@@ -30159,19 +30196,19 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>5.7282042414437182</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>6.3773744841994091</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>6.4376901807625204</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>6.4474708022482821</v>
       </c>
       <c r="G28">
@@ -30191,19 +30228,19 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>5.9908447316951676</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G29">
@@ -30223,19 +30260,19 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>5.622512890407771</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G30">
@@ -30255,19 +30292,19 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>5.2768269949564264</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G31">
@@ -30287,19 +30324,19 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>4.9523947169966247</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G32">
@@ -30319,19 +30356,19 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>4.6479093319485649</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G33">
@@ -30363,19 +30400,19 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>4.3621444558675471</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G34">
@@ -30407,19 +30444,19 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>4.0939491059044943</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G35">
@@ -30454,19 +30491,19 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>3.8422430644614849</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>6.5295047573719494</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>6.5613884436520831</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>6.5706297313718824</v>
       </c>
       <c r="G36">
@@ -30501,19 +30538,19 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>4.2823195327442027</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>5.4967807929184378</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>5.7425095750294766</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>5.7714957817339263</v>
       </c>
       <c r="G37">
@@ -30545,16 +30582,17 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
         <v>4.2034789999999997</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>5.3110229999999996</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>5.5485340000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>5.5977540000000001</v>
       </c>
       <c r="L38" t="s">
@@ -30578,16 +30616,17 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
         <v>4.2034789999999997</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>5.3110229999999996</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>5.5485340000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>5.5977540000000001</v>
       </c>
       <c r="L39" s="11"/>
@@ -30597,16 +30636,17 @@
       <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
         <v>4.2034789999999997</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>5.3110229999999996</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>5.5485340000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>5.5977540000000001</v>
       </c>
       <c r="L40" s="3"/>
@@ -30616,16 +30656,17 @@
       <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
         <v>4.2034789999999997</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>5.3110229999999996</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>5.5485340000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>5.5977540000000001</v>
       </c>
       <c r="L41" s="3"/>
@@ -30635,16 +30676,17 @@
       <c r="P41" s="4"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
         <v>4.2034789999999997</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>5.3110229999999996</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>5.5485340000000001</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>5.5977540000000001</v>
       </c>
       <c r="L42" s="3"/>
@@ -30815,8 +30857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32275,8 +32317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32360,10 +32402,10 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1.0783389999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="U6" s="8"/>
@@ -32375,10 +32417,10 @@
       <c r="B7">
         <v>52</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.0783389999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="8"/>
@@ -32390,10 +32432,10 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6.1666910000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>5.852176</v>
       </c>
       <c r="U8" s="8"/>
@@ -32405,10 +32447,10 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>6.1666910000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>5.852176</v>
       </c>
       <c r="U9" s="8"/>
@@ -32420,10 +32462,10 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6.1666910000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6.147691</v>
       </c>
       <c r="U10" s="8"/>
@@ -32435,10 +32477,10 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>6.1666910000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>6.1698870000000001</v>
       </c>
       <c r="U11" s="8"/>
@@ -32450,10 +32492,10 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>6.1666910000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>6.1698870000000001</v>
       </c>
       <c r="U12" s="8"/>
@@ -32465,10 +32507,10 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>6.1666910000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>6.1698870000000001</v>
       </c>
       <c r="U13" s="8"/>
@@ -32480,10 +32522,10 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>5.1895519999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>5.6762990000000002</v>
       </c>
       <c r="U14" s="8"/>
@@ -32495,10 +32537,10 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>5.1895519999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>5.6762990000000002</v>
       </c>
       <c r="U15" s="8"/>
@@ -32510,10 +32552,10 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>5.1895519999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>5.6762990000000002</v>
       </c>
       <c r="U16" s="8"/>
@@ -32525,10 +32567,10 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>5.1895519999999999</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>5.6269609999999997</v>
       </c>
       <c r="U17" s="8"/>
@@ -32540,10 +32582,10 @@
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>4.4738360000000004</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>5.2961749999999999</v>
       </c>
       <c r="U18" s="8"/>
@@ -32555,10 +32597,10 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4.4738360000000004</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5.3348389999999997</v>
       </c>
       <c r="U19" s="8"/>
@@ -32570,10 +32612,10 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>4.5093719999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>5.2795180000000004</v>
       </c>
       <c r="U20" s="8"/>
@@ -32585,10 +32627,10 @@
       <c r="B21">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>4.5093719999999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>5.2196829999999999</v>
       </c>
       <c r="U21" s="8"/>
@@ -32600,10 +32642,10 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>7.6817570000000002</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>6.2039920000000004</v>
       </c>
       <c r="U22" s="8"/>
@@ -32615,10 +32657,10 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>7.6817570000000002</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>6.997306</v>
       </c>
       <c r="I23" t="s">
@@ -32636,10 +32678,10 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>8.1427560000000003</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>7.0972309999999998</v>
       </c>
       <c r="H24" t="s">
@@ -32660,10 +32702,10 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>8.1427560000000003</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>7.0252790000000003</v>
       </c>
       <c r="H25" t="s">
@@ -32684,10 +32726,10 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>7.0483010000000004</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>6.5723950000000002</v>
       </c>
       <c r="H26" t="s">
@@ -32708,10 +32750,10 @@
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>7.0483010000000004</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>6.5723950000000002</v>
       </c>
       <c r="H27" t="s">
@@ -32734,10 +32776,10 @@
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>6.1401979999999998</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>6.3916950000000003</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -32754,10 +32796,10 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>6.1401979999999998</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>6.3611769999999996</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -32777,10 +32819,10 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>5.9639629999999997</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -32800,10 +32842,10 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>5.9229510000000003</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -32820,10 +32862,10 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>5.9229510000000003</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -32843,10 +32885,10 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>5.8846999999999996</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -32866,10 +32908,10 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>5.8846999999999996</v>
       </c>
       <c r="U34" s="8"/>
@@ -32881,10 +32923,10 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>5.8846999999999996</v>
       </c>
       <c r="U35" s="8"/>
@@ -32896,10 +32938,10 @@
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>5.8846999999999996</v>
       </c>
       <c r="U36" s="8"/>
@@ -32911,10 +32953,10 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>5.84375</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>5.6992289999999999</v>
       </c>
       <c r="H37" s="3"/>
@@ -32923,10 +32965,10 @@
       <c r="U37" s="8"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>4.9694890000000003</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>4.8929150000000003</v>
       </c>
       <c r="H38" s="3"/>
@@ -32935,35 +32977,35 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>4.9694890000000003</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>4.8929150000000003</v>
       </c>
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>4.9694890000000003</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>4.8929150000000003</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>4.9694890000000003</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>4.8929150000000003</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>4.9694890000000003</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>4.8929150000000003</v>
       </c>
     </row>
